--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Desktop/Y4S1/BT4103/Capstone/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A912DF1A-4DFD-DD4A-8EF0-308548E60CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22080" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="583">
   <si>
     <t>title</t>
   </si>
@@ -3398,12 +3404,15 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>ground_confidence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3435,7 +3444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3458,6 +3467,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3466,12 +3486,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3479,6 +3502,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3525,7 +3556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3557,9 +3588,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3591,6 +3640,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3766,14 +3833,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H64" workbookViewId="0">
+      <selection activeCell="O87" sqref="O87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="117.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="102.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3810,8 +3884,11 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3846,13 +3923,13 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.9019607843137255</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3893,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -3934,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -3975,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -4013,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -4054,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -4095,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4136,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -4177,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -4218,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -4259,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4300,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4341,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -4382,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -4423,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -4464,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -4505,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -4546,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -4587,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -4628,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4669,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -4710,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -4748,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -4789,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -4830,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -4871,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>12</v>
       </c>
@@ -4912,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -4953,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -4991,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -5032,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -5073,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -5114,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -5155,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>6</v>
       </c>
@@ -5196,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -5237,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>12</v>
       </c>
@@ -5278,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>15</v>
       </c>
@@ -5310,7 +5387,7 @@
         <v>100</v>
       </c>
       <c r="K38">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5319,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>18</v>
       </c>
@@ -5360,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -5401,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -5442,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -5483,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -5515,7 +5592,7 @@
         <v>100</v>
       </c>
       <c r="K43">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -5524,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -5565,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>6</v>
       </c>
@@ -5606,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>9</v>
       </c>
@@ -5646,8 +5723,11 @@
       <c r="M46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>12</v>
       </c>
@@ -5687,8 +5767,11 @@
       <c r="M47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -5728,8 +5811,11 @@
       <c r="M48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -5769,8 +5855,11 @@
       <c r="M49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>6</v>
       </c>
@@ -5807,8 +5896,11 @@
       <c r="M50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>9</v>
       </c>
@@ -5848,8 +5940,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>12</v>
       </c>
@@ -5886,8 +5981,11 @@
       <c r="M52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>15</v>
       </c>
@@ -5927,8 +6025,11 @@
       <c r="M53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -5965,8 +6066,11 @@
       <c r="M54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>9</v>
       </c>
@@ -6006,8 +6110,11 @@
       <c r="M55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>15</v>
       </c>
@@ -6047,8 +6154,11 @@
       <c r="M56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>18</v>
       </c>
@@ -6085,8 +6195,11 @@
       <c r="M57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -6126,8 +6239,11 @@
       <c r="M58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -6167,8 +6283,11 @@
       <c r="M59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>6</v>
       </c>
@@ -6208,8 +6327,11 @@
       <c r="M60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>9</v>
       </c>
@@ -6249,8 +6371,11 @@
       <c r="M61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>12</v>
       </c>
@@ -6287,8 +6412,11 @@
       <c r="M62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>15</v>
       </c>
@@ -6328,8 +6456,11 @@
       <c r="M63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>18</v>
       </c>
@@ -6369,8 +6500,11 @@
       <c r="M64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>21</v>
       </c>
@@ -6410,8 +6544,11 @@
       <c r="M65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -6448,8 +6585,11 @@
       <c r="M66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -6489,8 +6629,11 @@
       <c r="M67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -6530,8 +6673,11 @@
       <c r="M68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -6571,8 +6717,11 @@
       <c r="M69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>6</v>
       </c>
@@ -6612,8 +6761,11 @@
       <c r="M70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>9</v>
       </c>
@@ -6653,8 +6805,11 @@
       <c r="M71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>12</v>
       </c>
@@ -6694,8 +6849,11 @@
       <c r="M72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>15</v>
       </c>
@@ -6735,8 +6893,11 @@
       <c r="M73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>18</v>
       </c>
@@ -6776,8 +6937,11 @@
       <c r="M74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -6809,7 +6973,7 @@
         <v>100</v>
       </c>
       <c r="K75">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -6817,8 +6981,11 @@
       <c r="M75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -6858,8 +7025,11 @@
       <c r="M76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>6</v>
       </c>
@@ -6891,7 +7061,7 @@
         <v>100</v>
       </c>
       <c r="K77">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -6899,8 +7069,11 @@
       <c r="M77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>9</v>
       </c>
@@ -6932,7 +7105,7 @@
         <v>100</v>
       </c>
       <c r="K78">
-        <v>0.03571428571428571</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -6940,8 +7113,11 @@
       <c r="M78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>12</v>
       </c>
@@ -6981,8 +7157,11 @@
       <c r="M79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>15</v>
       </c>
@@ -7022,8 +7201,11 @@
       <c r="M80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -7060,8 +7242,11 @@
       <c r="M81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>3</v>
       </c>
@@ -7101,8 +7286,11 @@
       <c r="M82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>6</v>
       </c>
@@ -7142,8 +7330,11 @@
       <c r="M83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -7183,8 +7374,11 @@
       <c r="M84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>3</v>
       </c>
@@ -7216,7 +7410,7 @@
         <v>100</v>
       </c>
       <c r="K85">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -7224,8 +7418,11 @@
       <c r="M85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -7265,8 +7462,11 @@
       <c r="M86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>3</v>
       </c>
@@ -7306,8 +7506,11 @@
       <c r="M87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>6</v>
       </c>
@@ -7347,8 +7550,11 @@
       <c r="M88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>9</v>
       </c>
@@ -7388,8 +7594,11 @@
       <c r="M89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>12</v>
       </c>
@@ -7429,8 +7638,11 @@
       <c r="M90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -7470,8 +7682,11 @@
       <c r="M91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -7508,8 +7723,11 @@
       <c r="M92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>3</v>
       </c>
@@ -7549,8 +7767,11 @@
       <c r="M93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>6</v>
       </c>
@@ -7590,102 +7811,105 @@
       <c r="M94">
         <v>0</v>
       </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F50" r:id="rId49"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="F52" r:id="rId51"/>
-    <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="F54" r:id="rId53"/>
-    <hyperlink ref="F55" r:id="rId54"/>
-    <hyperlink ref="F56" r:id="rId55"/>
-    <hyperlink ref="F57" r:id="rId56"/>
-    <hyperlink ref="F58" r:id="rId57"/>
-    <hyperlink ref="F59" r:id="rId58"/>
-    <hyperlink ref="F60" r:id="rId59"/>
-    <hyperlink ref="F61" r:id="rId60"/>
-    <hyperlink ref="F62" r:id="rId61"/>
-    <hyperlink ref="F63" r:id="rId62"/>
-    <hyperlink ref="F64" r:id="rId63"/>
-    <hyperlink ref="F65" r:id="rId64"/>
-    <hyperlink ref="F66" r:id="rId65"/>
-    <hyperlink ref="F67" r:id="rId66"/>
-    <hyperlink ref="F68" r:id="rId67"/>
-    <hyperlink ref="F69" r:id="rId68"/>
-    <hyperlink ref="F70" r:id="rId69"/>
-    <hyperlink ref="F71" r:id="rId70"/>
-    <hyperlink ref="F72" r:id="rId71"/>
-    <hyperlink ref="F73" r:id="rId72"/>
-    <hyperlink ref="F74" r:id="rId73"/>
-    <hyperlink ref="F75" r:id="rId74"/>
-    <hyperlink ref="F76" r:id="rId75"/>
-    <hyperlink ref="F77" r:id="rId76"/>
-    <hyperlink ref="F78" r:id="rId77"/>
-    <hyperlink ref="F79" r:id="rId78"/>
-    <hyperlink ref="F80" r:id="rId79"/>
-    <hyperlink ref="F81" r:id="rId80"/>
-    <hyperlink ref="F82" r:id="rId81"/>
-    <hyperlink ref="F83" r:id="rId82"/>
-    <hyperlink ref="F84" r:id="rId83"/>
-    <hyperlink ref="F85" r:id="rId84"/>
-    <hyperlink ref="F86" r:id="rId85"/>
-    <hyperlink ref="F87" r:id="rId86"/>
-    <hyperlink ref="F88" r:id="rId87"/>
-    <hyperlink ref="F89" r:id="rId88"/>
-    <hyperlink ref="F90" r:id="rId89"/>
-    <hyperlink ref="F91" r:id="rId90"/>
-    <hyperlink ref="F92" r:id="rId91"/>
-    <hyperlink ref="F93" r:id="rId92"/>
-    <hyperlink ref="F94" r:id="rId93"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="F88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Pictures\Y3S1\BT4013\Capstone\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B86A25-10D6-46FD-9AB6-568944794B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="594">
   <si>
     <t>title</t>
   </si>
@@ -3398,12 +3404,48 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Chia Teck Leng</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Teo Cheng Kiat</t>
+  </si>
+  <si>
+    <t>Chong Hock Yen</t>
+  </si>
+  <si>
+    <t>Lim Oon Kuin</t>
+  </si>
+  <si>
+    <t>Tan Wee Beng</t>
+  </si>
+  <si>
+    <t>Lange Vivian</t>
+  </si>
+  <si>
+    <t>Mas Selamat Kastari</t>
+  </si>
+  <si>
+    <t>Noordin Mohammad Top</t>
+  </si>
+  <si>
+    <t>Mohd Firdaus Kamal Intdzam</t>
+  </si>
+  <si>
+    <t>Jens Fred Sturzenegger</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3426,6 +3468,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3435,7 +3488,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3458,6 +3511,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3466,12 +3541,43 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3479,6 +3585,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3525,7 +3639,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3557,9 +3671,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3591,6 +3723,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3766,3927 +3916,4353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>584</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>327</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>408</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>491</v>
       </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.9019607843137255</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0.90196078431372551</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>104</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>328</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>409</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>492</v>
       </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>0.4</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>105</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>329</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>410</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>493</v>
       </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>106</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>57</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>330</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>411</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>494</v>
       </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>107</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>412</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>495</v>
       </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6" t="s">
         <v>581</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>108</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>61</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>331</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>413</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>496</v>
       </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>109</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>332</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>414</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>497</v>
       </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>105</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>333</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>415</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>498</v>
       </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>110</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>334</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>416</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>499</v>
       </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>111</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>335</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>417</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>500</v>
       </c>
-      <c r="J11">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
         <v>581</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>112</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>336</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>418</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>501</v>
       </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>110</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>337</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>419</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>502</v>
       </c>
-      <c r="J13">
-        <v>100</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>112</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>338</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>420</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>503</v>
       </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>113</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>78</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>339</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>421</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>504</v>
       </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
         <v>581</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>114</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>340</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>422</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>505</v>
       </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>115</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>78</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>341</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>423</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>506</v>
       </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17" t="s">
         <v>581</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>116</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>78</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>342</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>424</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>507</v>
       </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>115</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>78</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>343</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>425</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>504</v>
       </c>
-      <c r="J19">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19" t="s">
         <v>581</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>117</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>77</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>344</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>426</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>508</v>
       </c>
-      <c r="J20">
-        <v>100</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
       <c r="L20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>115</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>78</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>345</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>427</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>509</v>
       </c>
-      <c r="J21">
-        <v>100</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>110</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>77</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>346</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>428</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>510</v>
       </c>
-      <c r="J22">
-        <v>100</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>110</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>77</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>347</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>429</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>511</v>
       </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
       <c r="L23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>118</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>43</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>412</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>512</v>
       </c>
-      <c r="J24">
-        <v>100</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="M24" t="s">
         <v>581</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>119</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>41</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>348</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>430</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>513</v>
       </c>
-      <c r="J25">
-        <v>100</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25" t="s">
         <v>581</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>119</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>41</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>349</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>431</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>514</v>
       </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
       <c r="L26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>119</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>41</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>350</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>432</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>515</v>
       </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
-      <c r="K27">
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27">
         <v>0.75</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>120</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>41</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>351</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>433</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>516</v>
       </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
         <v>0.6</v>
       </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>118</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>23</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>352</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>434</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>517</v>
       </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
       <c r="L29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>121</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>412</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>518</v>
       </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30" t="s">
         <v>581</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>118</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>23</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>353</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>435</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>519</v>
       </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="M31" t="s">
         <v>581</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>122</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>23</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>354</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>436</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>520</v>
       </c>
-      <c r="J32">
-        <v>100</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32" t="s">
         <v>581</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>123</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>56</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>355</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>437</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>521</v>
       </c>
-      <c r="J33">
-        <v>100</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
       <c r="L33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>124</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>60</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>356</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
         <v>438</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>522</v>
       </c>
-      <c r="J34">
-        <v>100</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
       <c r="L34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>125</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>60</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>175</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>357</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>439</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>523</v>
       </c>
-      <c r="J35">
-        <v>100</v>
-      </c>
-      <c r="K35">
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="M35">
         <v>0.1851851851851852</v>
       </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>126</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>52</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>358</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>440</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>524</v>
       </c>
-      <c r="J36">
-        <v>100</v>
-      </c>
-      <c r="K36">
+      <c r="L36">
+        <v>100</v>
+      </c>
+      <c r="M36">
         <v>0.9285714285714286</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>12</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>108</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>60</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>359</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>441</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>525</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>90</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>581</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>15</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>127</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>60</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>360</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>442</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>526</v>
       </c>
-      <c r="J38">
-        <v>100</v>
-      </c>
-      <c r="K38">
-        <v>0.2222222222222222</v>
-      </c>
       <c r="L38">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>18</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>108</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>60</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>361</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>443</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>527</v>
       </c>
-      <c r="J39">
-        <v>100</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="L39">
+        <v>100</v>
+      </c>
+      <c r="M39" t="s">
         <v>581</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>128</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>53</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>362</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>444</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>528</v>
       </c>
-      <c r="J40">
-        <v>100</v>
-      </c>
-      <c r="K40">
+      <c r="L40">
+        <v>100</v>
+      </c>
+      <c r="M40">
         <v>0.4</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>3</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>129</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>48</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>363</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>445</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>529</v>
       </c>
-      <c r="J41">
-        <v>100</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>6</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>130</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>42</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>364</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
         <v>446</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>530</v>
       </c>
-      <c r="J42">
-        <v>100</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
       <c r="L42">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>116</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>34</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
         <v>365</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
         <v>447</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>531</v>
       </c>
-      <c r="J43">
-        <v>100</v>
-      </c>
-      <c r="K43">
-        <v>0.4285714285714285</v>
-      </c>
       <c r="L43">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>3</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>125</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>34</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>366</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>448</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>532</v>
       </c>
-      <c r="J44">
-        <v>100</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
       <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
         <v>0.875</v>
       </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>6</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
         <v>54</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>124</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>34</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
         <v>367</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>449</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>533</v>
       </c>
-      <c r="J45">
-        <v>100</v>
-      </c>
-      <c r="K45">
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45">
         <v>0.3</v>
       </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>9</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>125</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>34</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>186</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>368</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>450</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>534</v>
       </c>
-      <c r="J46">
-        <v>100</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
       <c r="L46">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>12</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>124</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>34</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>187</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
         <v>369</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
         <v>451</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>535</v>
       </c>
-      <c r="J47">
-        <v>100</v>
-      </c>
-      <c r="K47">
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47">
         <v>0.4</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>131</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>370</v>
       </c>
-      <c r="H48" t="s">
+      <c r="J48" t="s">
         <v>452</v>
       </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>536</v>
       </c>
-      <c r="J48">
-        <v>100</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
       <c r="L48">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>3</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>132</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
         <v>189</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>371</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>453</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>537</v>
       </c>
-      <c r="J49">
-        <v>100</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
       <c r="L49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>6</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>131</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>412</v>
       </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>538</v>
       </c>
-      <c r="J50">
-        <v>100</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="M50" t="s">
         <v>581</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>9</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>131</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
         <v>191</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>372</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>454</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>539</v>
       </c>
-      <c r="J51">
-        <v>100</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="L51">
+        <v>100</v>
+      </c>
+      <c r="M51" t="s">
         <v>581</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>12</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
         <v>61</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>133</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
         <v>192</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
         <v>412</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>538</v>
       </c>
-      <c r="J52">
-        <v>100</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="L52">
+        <v>100</v>
+      </c>
+      <c r="M52" t="s">
         <v>581</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>15</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
         <v>62</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>132</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
         <v>193</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G53" t="s">
+      <c r="I53" t="s">
         <v>373</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>455</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>540</v>
       </c>
-      <c r="J53">
-        <v>100</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
       <c r="L53">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>6</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>114</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
         <v>194</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>412</v>
       </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>541</v>
       </c>
-      <c r="J54">
-        <v>100</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="L54">
+        <v>100</v>
+      </c>
+      <c r="M54" t="s">
         <v>581</v>
       </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>108</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
         <v>195</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
         <v>374</v>
       </c>
-      <c r="H55" t="s">
+      <c r="J55" t="s">
         <v>456</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
         <v>542</v>
       </c>
-      <c r="J55">
-        <v>100</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="L55">
+        <v>100</v>
+      </c>
+      <c r="M55" t="s">
         <v>581</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>15</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
         <v>65</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>131</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
         <v>196</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
         <v>375</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
         <v>457</v>
       </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>543</v>
       </c>
-      <c r="J56">
-        <v>100</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
       <c r="L56">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>18</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>131</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
         <v>197</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H57" t="s">
+      <c r="J57" t="s">
         <v>412</v>
       </c>
-      <c r="I57" t="s">
+      <c r="K57" t="s">
         <v>544</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>91</v>
       </c>
-      <c r="K57" t="s">
+      <c r="M57" t="s">
         <v>581</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="7"/>
+      <c r="C58" s="5"/>
+      <c r="D58" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>134</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
         <v>198</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
         <v>376</v>
       </c>
-      <c r="H58" t="s">
+      <c r="J58" t="s">
         <v>458</v>
       </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>545</v>
       </c>
-      <c r="J58">
-        <v>100</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
       <c r="L58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>3</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="5"/>
+      <c r="D59" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>113</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>65</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>199</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>377</v>
       </c>
-      <c r="H59" t="s">
+      <c r="J59" t="s">
         <v>459</v>
       </c>
-      <c r="I59" t="s">
+      <c r="K59" t="s">
         <v>546</v>
       </c>
-      <c r="J59">
-        <v>100</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
       <c r="L59">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>6</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="7"/>
+      <c r="C60" s="5"/>
+      <c r="D60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>113</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>65</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>200</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
         <v>378</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>460</v>
       </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
         <v>547</v>
       </c>
-      <c r="J60">
-        <v>100</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
       <c r="L60">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>9</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="7"/>
+      <c r="C61" s="5"/>
+      <c r="D61" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>135</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>65</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>201</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
         <v>379</v>
       </c>
-      <c r="H61" t="s">
+      <c r="J61" t="s">
         <v>461</v>
       </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
         <v>548</v>
       </c>
-      <c r="J61">
-        <v>100</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
       <c r="L61">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>12</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="7"/>
+      <c r="C62" s="5"/>
+      <c r="D62" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>125</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>65</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H62" t="s">
+      <c r="J62" t="s">
         <v>412</v>
       </c>
-      <c r="I62" t="s">
+      <c r="K62" t="s">
         <v>549</v>
       </c>
-      <c r="J62">
-        <v>100</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="L62">
+        <v>100</v>
+      </c>
+      <c r="M62" t="s">
         <v>581</v>
       </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>15</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="7"/>
+      <c r="C63" s="5"/>
+      <c r="D63" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>113</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>65</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>203</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
         <v>380</v>
       </c>
-      <c r="H63" t="s">
+      <c r="J63" t="s">
         <v>462</v>
       </c>
-      <c r="I63" t="s">
+      <c r="K63" t="s">
         <v>550</v>
       </c>
-      <c r="J63">
-        <v>100</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
       <c r="L63">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>18</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="7"/>
+      <c r="C64" s="5"/>
+      <c r="D64" t="s">
         <v>73</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>115</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>65</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>204</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G64" t="s">
+      <c r="I64" t="s">
         <v>339</v>
       </c>
-      <c r="H64" t="s">
+      <c r="J64" t="s">
         <v>421</v>
       </c>
-      <c r="I64" t="s">
+      <c r="K64" t="s">
         <v>551</v>
       </c>
-      <c r="J64">
-        <v>100</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="L64">
+        <v>100</v>
+      </c>
+      <c r="M64" t="s">
         <v>581</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>21</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="7"/>
+      <c r="C65" s="5"/>
+      <c r="D65" t="s">
         <v>74</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>128</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>65</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>205</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G65" t="s">
+      <c r="I65" t="s">
         <v>381</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>463</v>
       </c>
-      <c r="I65" t="s">
+      <c r="K65" t="s">
         <v>552</v>
       </c>
-      <c r="J65">
-        <v>100</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="M65" t="s">
         <v>581</v>
       </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="5"/>
+      <c r="D66" t="s">
         <v>75</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>136</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
         <v>206</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H66" t="s">
+      <c r="J66" t="s">
         <v>412</v>
       </c>
-      <c r="I66" t="s">
+      <c r="K66" t="s">
         <v>553</v>
       </c>
-      <c r="J66">
-        <v>100</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="L66">
+        <v>100</v>
+      </c>
+      <c r="M66" t="s">
         <v>581</v>
       </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="7"/>
+      <c r="C67" s="5"/>
+      <c r="D67" t="s">
         <v>76</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
         <v>136</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G67" t="s">
+      <c r="I67" t="s">
         <v>382</v>
       </c>
-      <c r="H67" t="s">
+      <c r="J67" t="s">
         <v>464</v>
       </c>
-      <c r="I67" t="s">
+      <c r="K67" t="s">
         <v>554</v>
       </c>
-      <c r="J67">
-        <v>100</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
       <c r="L67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="7"/>
+      <c r="C68" s="5"/>
+      <c r="D68" t="s">
         <v>77</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>137</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>34</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G68" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G68" t="s">
+      <c r="I68" t="s">
         <v>383</v>
       </c>
-      <c r="H68" t="s">
+      <c r="J68" t="s">
         <v>465</v>
       </c>
-      <c r="I68" t="s">
+      <c r="K68" t="s">
         <v>555</v>
       </c>
-      <c r="J68">
-        <v>100</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
       <c r="L68">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>3</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="5"/>
+      <c r="D69" t="s">
         <v>78</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>135</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>34</v>
       </c>
-      <c r="E69" t="s">
+      <c r="G69" t="s">
         <v>209</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G69" t="s">
+      <c r="I69" t="s">
         <v>384</v>
       </c>
-      <c r="H69" t="s">
+      <c r="J69" t="s">
         <v>466</v>
       </c>
-      <c r="I69" t="s">
+      <c r="K69" t="s">
         <v>556</v>
       </c>
-      <c r="J69">
-        <v>100</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
       <c r="L69">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>6</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="7"/>
+      <c r="C70" s="5"/>
+      <c r="D70" t="s">
         <v>79</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>116</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>34</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G70" t="s">
+      <c r="I70" t="s">
         <v>385</v>
       </c>
-      <c r="H70" t="s">
+      <c r="J70" t="s">
         <v>467</v>
       </c>
-      <c r="I70" t="s">
+      <c r="K70" t="s">
         <v>557</v>
       </c>
-      <c r="J70">
-        <v>100</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
       <c r="L70">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>9</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="5"/>
+      <c r="D71" t="s">
         <v>80</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>115</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>34</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>211</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G71" t="s">
+      <c r="I71" t="s">
         <v>386</v>
       </c>
-      <c r="H71" t="s">
+      <c r="J71" t="s">
         <v>468</v>
       </c>
-      <c r="I71" t="s">
+      <c r="K71" t="s">
         <v>557</v>
       </c>
-      <c r="J71">
-        <v>100</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
       <c r="L71">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>12</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="5"/>
+      <c r="D72" t="s">
         <v>81</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
         <v>114</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>34</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G72" t="s">
         <v>212</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G72" t="s">
+      <c r="I72" t="s">
         <v>387</v>
       </c>
-      <c r="H72" t="s">
+      <c r="J72" t="s">
         <v>469</v>
       </c>
-      <c r="I72" t="s">
+      <c r="K72" t="s">
         <v>558</v>
       </c>
-      <c r="J72">
-        <v>100</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
       <c r="L72">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>15</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="5"/>
+      <c r="D73" t="s">
         <v>82</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>114</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <v>34</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>213</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G73" t="s">
+      <c r="I73" t="s">
         <v>388</v>
       </c>
-      <c r="H73" t="s">
+      <c r="J73" t="s">
         <v>470</v>
       </c>
-      <c r="I73" t="s">
+      <c r="K73" t="s">
         <v>559</v>
       </c>
-      <c r="J73">
-        <v>100</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
       <c r="L73">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>18</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="5"/>
+      <c r="D74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>116</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <v>34</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>214</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G74" t="s">
+      <c r="I74" t="s">
         <v>389</v>
       </c>
-      <c r="H74" t="s">
+      <c r="J74" t="s">
         <v>471</v>
       </c>
-      <c r="I74" t="s">
+      <c r="K74" t="s">
         <v>560</v>
       </c>
-      <c r="J74">
-        <v>100</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
       <c r="L74">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="5"/>
+      <c r="D75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>138</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
         <v>215</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I75" t="s">
         <v>390</v>
       </c>
-      <c r="H75" t="s">
+      <c r="J75" t="s">
         <v>472</v>
       </c>
-      <c r="I75" t="s">
+      <c r="K75" t="s">
         <v>561</v>
       </c>
-      <c r="J75">
-        <v>100</v>
-      </c>
-      <c r="K75">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="L75">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>3</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="7"/>
+      <c r="C76" s="5"/>
+      <c r="D76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>138</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
         <v>216</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I76" t="s">
         <v>391</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J76" t="s">
         <v>473</v>
       </c>
-      <c r="I76" t="s">
+      <c r="K76" t="s">
         <v>562</v>
       </c>
-      <c r="J76">
-        <v>100</v>
-      </c>
-      <c r="K76">
+      <c r="L76">
+        <v>100</v>
+      </c>
+      <c r="M76">
         <v>0.2857142857142857</v>
       </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>6</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="7"/>
+      <c r="C77" s="5"/>
+      <c r="D77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>138</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
         <v>217</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G77" t="s">
+      <c r="I77" t="s">
         <v>392</v>
       </c>
-      <c r="H77" t="s">
+      <c r="J77" t="s">
         <v>474</v>
       </c>
-      <c r="I77" t="s">
+      <c r="K77" t="s">
         <v>563</v>
       </c>
-      <c r="J77">
-        <v>100</v>
-      </c>
-      <c r="K77">
-        <v>0.7777777777777778</v>
-      </c>
       <c r="L77">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>9</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="7"/>
+      <c r="C78" s="5"/>
+      <c r="D78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>117</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
         <v>218</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G78" t="s">
+      <c r="I78" t="s">
         <v>393</v>
       </c>
-      <c r="H78" t="s">
+      <c r="J78" t="s">
         <v>475</v>
       </c>
-      <c r="I78" t="s">
+      <c r="K78" t="s">
         <v>564</v>
       </c>
-      <c r="J78">
-        <v>100</v>
-      </c>
-      <c r="K78">
-        <v>0.03571428571428571</v>
-      </c>
       <c r="L78">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>12</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="7"/>
+      <c r="C79" s="5"/>
+      <c r="D79" t="s">
         <v>88</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>117</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
         <v>219</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G79" t="s">
+      <c r="I79" t="s">
         <v>394</v>
       </c>
-      <c r="H79" t="s">
+      <c r="J79" t="s">
         <v>476</v>
       </c>
-      <c r="I79" t="s">
+      <c r="K79" t="s">
         <v>565</v>
       </c>
-      <c r="J79">
-        <v>100</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
       <c r="L79">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>15</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="7"/>
+      <c r="C80" s="5"/>
+      <c r="D80" t="s">
         <v>89</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
         <v>108</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
         <v>220</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G80" t="s">
+      <c r="I80" t="s">
         <v>395</v>
       </c>
-      <c r="H80" t="s">
+      <c r="J80" t="s">
         <v>477</v>
       </c>
-      <c r="I80" t="s">
+      <c r="K80" t="s">
         <v>566</v>
       </c>
-      <c r="J80">
-        <v>100</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
       <c r="L80">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="7"/>
+      <c r="C81" s="5"/>
+      <c r="D81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>110</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>58</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>221</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H81" t="s">
+      <c r="J81" t="s">
         <v>412</v>
       </c>
-      <c r="I81" t="s">
+      <c r="K81" t="s">
         <v>567</v>
       </c>
-      <c r="J81">
-        <v>100</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="L81">
+        <v>100</v>
+      </c>
+      <c r="M81" t="s">
         <v>581</v>
       </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>3</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="7"/>
+      <c r="C82" s="5"/>
+      <c r="D82" t="s">
         <v>91</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>139</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <v>58</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>222</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G82" t="s">
+      <c r="I82" t="s">
         <v>396</v>
       </c>
-      <c r="H82" t="s">
+      <c r="J82" t="s">
         <v>478</v>
       </c>
-      <c r="I82" t="s">
+      <c r="K82" t="s">
         <v>568</v>
       </c>
-      <c r="J82">
-        <v>100</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
       <c r="L82">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>6</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="7"/>
+      <c r="C83" s="5"/>
+      <c r="D83" t="s">
         <v>92</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
         <v>118</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <v>58</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>223</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G83" t="s">
+      <c r="I83" t="s">
         <v>397</v>
       </c>
-      <c r="H83" t="s">
+      <c r="J83" t="s">
         <v>479</v>
       </c>
-      <c r="I83" t="s">
+      <c r="K83" t="s">
         <v>569</v>
       </c>
-      <c r="J83">
-        <v>100</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
       <c r="L83">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="7"/>
+      <c r="C84" s="5"/>
+      <c r="D84" t="s">
         <v>93</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
         <v>140</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <v>56</v>
       </c>
-      <c r="E84" t="s">
+      <c r="G84" t="s">
         <v>224</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>398</v>
       </c>
-      <c r="H84" t="s">
+      <c r="J84" t="s">
         <v>480</v>
       </c>
-      <c r="I84" t="s">
+      <c r="K84" t="s">
         <v>570</v>
       </c>
-      <c r="J84">
-        <v>100</v>
-      </c>
-      <c r="K84">
+      <c r="L84">
+        <v>100</v>
+      </c>
+      <c r="M84">
         <v>0.5</v>
       </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>3</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="7"/>
+      <c r="C85" s="5"/>
+      <c r="D85" t="s">
         <v>94</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
         <v>140</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <v>56</v>
       </c>
-      <c r="E85" t="s">
+      <c r="G85" t="s">
         <v>225</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G85" t="s">
+      <c r="I85" t="s">
         <v>399</v>
       </c>
-      <c r="H85" t="s">
+      <c r="J85" t="s">
         <v>481</v>
       </c>
-      <c r="I85" t="s">
+      <c r="K85" t="s">
         <v>571</v>
       </c>
-      <c r="J85">
-        <v>100</v>
-      </c>
-      <c r="K85">
-        <v>0.4166666666666667</v>
-      </c>
       <c r="L85">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="7"/>
+      <c r="C86" s="5"/>
+      <c r="D86" t="s">
         <v>95</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86" t="s">
         <v>125</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
         <v>226</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G86" t="s">
+      <c r="I86" t="s">
         <v>400</v>
       </c>
-      <c r="H86" t="s">
+      <c r="J86" t="s">
         <v>482</v>
       </c>
-      <c r="I86" t="s">
+      <c r="K86" t="s">
         <v>572</v>
       </c>
-      <c r="J86">
-        <v>100</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
       <c r="L86">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>3</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="7"/>
+      <c r="C87" s="5"/>
+      <c r="D87" t="s">
         <v>96</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
         <v>124</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
         <v>227</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G87" t="s">
+      <c r="I87" t="s">
         <v>401</v>
       </c>
-      <c r="H87" t="s">
+      <c r="J87" t="s">
         <v>483</v>
       </c>
-      <c r="I87" t="s">
+      <c r="K87" t="s">
         <v>573</v>
       </c>
-      <c r="J87">
-        <v>100</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
       <c r="L87">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>6</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="7"/>
+      <c r="C88" s="5"/>
+      <c r="D88" t="s">
         <v>97</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
         <v>141</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
         <v>228</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G88" t="s">
+      <c r="I88" t="s">
         <v>402</v>
       </c>
-      <c r="H88" t="s">
+      <c r="J88" t="s">
         <v>484</v>
       </c>
-      <c r="I88" t="s">
+      <c r="K88" t="s">
         <v>574</v>
       </c>
-      <c r="J88">
-        <v>100</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
       <c r="L88">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>9</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="7"/>
+      <c r="C89" s="5"/>
+      <c r="D89" t="s">
         <v>98</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>142</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
         <v>229</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
         <v>403</v>
       </c>
-      <c r="H89" t="s">
+      <c r="J89" t="s">
         <v>485</v>
       </c>
-      <c r="I89" t="s">
+      <c r="K89" t="s">
         <v>575</v>
       </c>
-      <c r="J89">
-        <v>100</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
       <c r="L89">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>12</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="7"/>
+      <c r="C90" s="5"/>
+      <c r="D90" t="s">
         <v>99</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>128</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
         <v>230</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G90" t="s">
+      <c r="I90" t="s">
         <v>404</v>
       </c>
-      <c r="H90" t="s">
+      <c r="J90" t="s">
         <v>486</v>
       </c>
-      <c r="I90" t="s">
+      <c r="K90" t="s">
         <v>576</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>89</v>
       </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
       <c r="M90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0</v>
       </c>
-      <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="7"/>
+      <c r="C91" s="5"/>
+      <c r="D91" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" t="s">
         <v>110</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <v>63</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>231</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
         <v>405</v>
       </c>
-      <c r="H91" t="s">
+      <c r="J91" t="s">
         <v>487</v>
       </c>
-      <c r="I91" t="s">
+      <c r="K91" t="s">
         <v>577</v>
       </c>
-      <c r="J91">
-        <v>100</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="L91">
+        <v>100</v>
+      </c>
+      <c r="M91" t="s">
         <v>581</v>
       </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="7"/>
+      <c r="C92" s="5"/>
+      <c r="D92" t="s">
         <v>101</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>110</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
         <v>232</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="H92" t="s">
+      <c r="J92" t="s">
         <v>488</v>
       </c>
-      <c r="I92" t="s">
+      <c r="K92" t="s">
         <v>578</v>
       </c>
-      <c r="J92">
-        <v>100</v>
-      </c>
-      <c r="K92" t="s">
+      <c r="L92">
+        <v>100</v>
+      </c>
+      <c r="M92" t="s">
         <v>581</v>
       </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>3</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="7"/>
+      <c r="C93" s="5"/>
+      <c r="D93" t="s">
         <v>102</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>110</v>
       </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
         <v>233</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
         <v>406</v>
       </c>
-      <c r="H93" t="s">
+      <c r="J93" t="s">
         <v>489</v>
       </c>
-      <c r="I93" t="s">
+      <c r="K93" t="s">
         <v>579</v>
       </c>
-      <c r="J93">
-        <v>100</v>
-      </c>
-      <c r="K93" t="s">
+      <c r="L93">
+        <v>100</v>
+      </c>
+      <c r="M93" t="s">
         <v>581</v>
       </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>6</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="7"/>
+      <c r="C94" s="5"/>
+      <c r="D94" t="s">
         <v>103</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>110</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
         <v>233</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
         <v>407</v>
       </c>
-      <c r="H94" t="s">
+      <c r="J94" t="s">
         <v>490</v>
       </c>
-      <c r="I94" t="s">
+      <c r="K94" t="s">
         <v>580</v>
       </c>
-      <c r="J94">
-        <v>100</v>
-      </c>
-      <c r="K94" t="s">
+      <c r="L94">
+        <v>100</v>
+      </c>
+      <c r="M94" t="s">
         <v>581</v>
       </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F50" r:id="rId49"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="F52" r:id="rId51"/>
-    <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="F54" r:id="rId53"/>
-    <hyperlink ref="F55" r:id="rId54"/>
-    <hyperlink ref="F56" r:id="rId55"/>
-    <hyperlink ref="F57" r:id="rId56"/>
-    <hyperlink ref="F58" r:id="rId57"/>
-    <hyperlink ref="F59" r:id="rId58"/>
-    <hyperlink ref="F60" r:id="rId59"/>
-    <hyperlink ref="F61" r:id="rId60"/>
-    <hyperlink ref="F62" r:id="rId61"/>
-    <hyperlink ref="F63" r:id="rId62"/>
-    <hyperlink ref="F64" r:id="rId63"/>
-    <hyperlink ref="F65" r:id="rId64"/>
-    <hyperlink ref="F66" r:id="rId65"/>
-    <hyperlink ref="F67" r:id="rId66"/>
-    <hyperlink ref="F68" r:id="rId67"/>
-    <hyperlink ref="F69" r:id="rId68"/>
-    <hyperlink ref="F70" r:id="rId69"/>
-    <hyperlink ref="F71" r:id="rId70"/>
-    <hyperlink ref="F72" r:id="rId71"/>
-    <hyperlink ref="F73" r:id="rId72"/>
-    <hyperlink ref="F74" r:id="rId73"/>
-    <hyperlink ref="F75" r:id="rId74"/>
-    <hyperlink ref="F76" r:id="rId75"/>
-    <hyperlink ref="F77" r:id="rId76"/>
-    <hyperlink ref="F78" r:id="rId77"/>
-    <hyperlink ref="F79" r:id="rId78"/>
-    <hyperlink ref="F80" r:id="rId79"/>
-    <hyperlink ref="F81" r:id="rId80"/>
-    <hyperlink ref="F82" r:id="rId81"/>
-    <hyperlink ref="F83" r:id="rId82"/>
-    <hyperlink ref="F84" r:id="rId83"/>
-    <hyperlink ref="F85" r:id="rId84"/>
-    <hyperlink ref="F86" r:id="rId85"/>
-    <hyperlink ref="F87" r:id="rId86"/>
-    <hyperlink ref="F88" r:id="rId87"/>
-    <hyperlink ref="F89" r:id="rId88"/>
-    <hyperlink ref="F90" r:id="rId89"/>
-    <hyperlink ref="F91" r:id="rId90"/>
-    <hyperlink ref="F92" r:id="rId91"/>
-    <hyperlink ref="F93" r:id="rId92"/>
-    <hyperlink ref="F94" r:id="rId93"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="H54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="H55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="H80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="H90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="H93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="H94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Pictures\Y3S1\BT4013\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B86A25-10D6-46FD-9AB6-568944794B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F19A50A-D58D-441B-984B-9BB6304531D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="600">
   <si>
     <t>title</t>
   </si>
@@ -3402,18 +3402,12 @@
     <t>Counter({'Ricky': 2, 'Mohammad': 1, 'Jibril': 1, 'Muhamad': 1, 'Muhammad': 1, 'States': 1})</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>Chia Teck Leng</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>Teo Cheng Kiat</t>
   </si>
   <si>
@@ -3439,13 +3433,37 @@
   </si>
   <si>
     <t>Jens Fred Sturzenegger</t>
+  </si>
+  <si>
+    <t>ground_confidence</t>
+  </si>
+  <si>
+    <t>Bidzina Ivanishvili</t>
+  </si>
+  <si>
+    <t>Bernard Kan Cheok Yin</t>
+  </si>
+  <si>
+    <t>Ng Yu Zhi</t>
+  </si>
+  <si>
+    <t>Ahmed Faysal</t>
+  </si>
+  <si>
+    <t>Ng Kheng Wah</t>
+  </si>
+  <si>
+    <t>Tay Sheng Yang</t>
+  </si>
+  <si>
+    <t>SAHIN Huseyin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3479,6 +3497,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3488,7 +3512,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3503,6 +3527,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -3541,12 +3578,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3555,9 +3595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3568,16 +3605,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3919,339 +3960,338 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
+      <c r="A1" s="13"/>
       <c r="B1" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="H2" t="s">
+        <v>327</v>
+      </c>
       <c r="I2" t="s">
-        <v>327</v>
+        <v>408</v>
       </c>
       <c r="J2" t="s">
-        <v>408</v>
-      </c>
-      <c r="K2" t="s">
         <v>491</v>
       </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
       <c r="L2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="N2">
-        <v>0.90196078431372551</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
+      <c r="B3" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
         <v>104</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="H3" t="s">
+        <v>328</v>
+      </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="J3" t="s">
-        <v>409</v>
-      </c>
-      <c r="K3" t="s">
         <v>492</v>
       </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
       <c r="L3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N3">
-        <v>0.4</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
+      <c r="B4" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
         <v>105</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="H4" t="s">
+        <v>329</v>
+      </c>
       <c r="I4" t="s">
-        <v>329</v>
+        <v>410</v>
       </c>
       <c r="J4" t="s">
-        <v>410</v>
-      </c>
-      <c r="K4" t="s">
         <v>493</v>
       </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
       <c r="L4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>0</v>
+      <c r="O4" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
+      <c r="B5" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
         <v>106</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="H5" t="s">
+        <v>330</v>
+      </c>
       <c r="I5" t="s">
-        <v>330</v>
+        <v>411</v>
       </c>
       <c r="J5" t="s">
-        <v>411</v>
-      </c>
-      <c r="K5" t="s">
         <v>494</v>
       </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
       <c r="L5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>0</v>
+      <c r="O5" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
+      <c r="B6" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
         <v>107</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="I6" t="s">
+        <v>412</v>
+      </c>
       <c r="J6" t="s">
-        <v>412</v>
-      </c>
-      <c r="K6" t="s">
         <v>495</v>
       </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
       <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="O6" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
+      <c r="B7" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
         <v>108</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>61</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="H7" t="s">
+        <v>331</v>
+      </c>
       <c r="I7" t="s">
-        <v>331</v>
+        <v>413</v>
       </c>
       <c r="J7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K7" t="s">
         <v>496</v>
       </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
       <c r="L7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4259,38 +4299,38 @@
       <c r="A8" s="1">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
+      <c r="B8" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
         <v>109</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="H8" t="s">
+        <v>332</v>
+      </c>
       <c r="I8" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
       <c r="J8" t="s">
-        <v>414</v>
-      </c>
-      <c r="K8" t="s">
         <v>497</v>
       </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
       <c r="L8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -4298,7 +4338,7 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4306,46 +4346,46 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
+      <c r="B9" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
         <v>105</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="H9" t="s">
+        <v>333</v>
+      </c>
       <c r="I9" t="s">
-        <v>333</v>
+        <v>415</v>
       </c>
       <c r="J9" t="s">
-        <v>415</v>
-      </c>
-      <c r="K9" t="s">
         <v>498</v>
       </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
       <c r="L9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4353,38 +4393,38 @@
       <c r="A10" s="1">
         <v>0</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
+      <c r="B10" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
         <v>110</v>
       </c>
-      <c r="F10">
+      <c r="E10">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="H10" t="s">
+        <v>334</v>
+      </c>
       <c r="I10" t="s">
-        <v>334</v>
+        <v>416</v>
       </c>
       <c r="J10" t="s">
-        <v>416</v>
-      </c>
-      <c r="K10" t="s">
         <v>499</v>
       </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
       <c r="L10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -4392,7 +4432,7 @@
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4400,46 +4440,46 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
+      <c r="B11" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
         <v>111</v>
       </c>
-      <c r="F11">
+      <c r="E11">
         <v>60</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="H11" t="s">
+        <v>335</v>
+      </c>
       <c r="I11" t="s">
-        <v>335</v>
+        <v>417</v>
       </c>
       <c r="J11" t="s">
-        <v>417</v>
-      </c>
-      <c r="K11" t="s">
         <v>500</v>
       </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
       <c r="L11">
-        <v>100</v>
-      </c>
-      <c r="M11" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4447,38 +4487,38 @@
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
+      <c r="B12" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
         <v>112</v>
       </c>
-      <c r="F12">
+      <c r="E12">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="H12" t="s">
+        <v>336</v>
+      </c>
       <c r="I12" t="s">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="J12" t="s">
-        <v>418</v>
-      </c>
-      <c r="K12" t="s">
         <v>501</v>
       </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
       <c r="L12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -4486,7 +4526,7 @@
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4494,38 +4534,38 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
+      <c r="B13" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
         <v>110</v>
       </c>
-      <c r="F13">
+      <c r="E13">
         <v>60</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="H13" t="s">
+        <v>337</v>
+      </c>
       <c r="I13" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="J13" t="s">
-        <v>419</v>
-      </c>
-      <c r="K13" t="s">
         <v>502</v>
       </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
       <c r="L13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -4533,7 +4573,7 @@
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4541,38 +4581,38 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
+      <c r="B14" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
         <v>112</v>
       </c>
-      <c r="F14">
+      <c r="E14">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="H14" t="s">
+        <v>338</v>
+      </c>
       <c r="I14" t="s">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="J14" t="s">
-        <v>420</v>
-      </c>
-      <c r="K14" t="s">
         <v>503</v>
       </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
       <c r="L14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -4580,7 +4620,7 @@
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4589,46 +4629,46 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
+        <v>585</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
         <v>113</v>
       </c>
-      <c r="F15">
+      <c r="E15">
         <v>78</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="H15" t="s">
+        <v>339</v>
+      </c>
       <c r="I15" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="J15" t="s">
-        <v>421</v>
-      </c>
-      <c r="K15" t="s">
         <v>504</v>
       </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
       <c r="L15">
-        <v>100</v>
-      </c>
-      <c r="M15" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>0</v>
+      <c r="O15" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -4636,46 +4676,46 @@
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
+        <v>585</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
         <v>114</v>
       </c>
-      <c r="F16">
+      <c r="E16">
         <v>78</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="H16" t="s">
+        <v>340</v>
+      </c>
       <c r="I16" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
       <c r="J16" t="s">
-        <v>422</v>
-      </c>
-      <c r="K16" t="s">
         <v>505</v>
       </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
       <c r="L16">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>0</v>
+      <c r="O16" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4683,45 +4723,45 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
+        <v>585</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
         <v>115</v>
       </c>
-      <c r="F17">
+      <c r="E17">
         <v>78</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
         <v>158</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="H17" t="s">
+        <v>341</v>
+      </c>
       <c r="I17" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="J17" t="s">
-        <v>423</v>
-      </c>
-      <c r="K17" t="s">
         <v>506</v>
       </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
       <c r="L17">
-        <v>100</v>
-      </c>
-      <c r="M17" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4730,37 +4770,37 @@
         <v>9</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
+        <v>585</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
         <v>116</v>
       </c>
-      <c r="F18">
+      <c r="E18">
         <v>78</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
         <v>159</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="H18" t="s">
+        <v>342</v>
+      </c>
       <c r="I18" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="J18" t="s">
-        <v>424</v>
-      </c>
-      <c r="K18" t="s">
         <v>507</v>
       </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
       <c r="L18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -4768,7 +4808,7 @@
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4777,46 +4817,46 @@
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
+        <v>585</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
         <v>115</v>
       </c>
-      <c r="F19">
+      <c r="E19">
         <v>78</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="H19" t="s">
+        <v>343</v>
+      </c>
       <c r="I19" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="J19" t="s">
-        <v>425</v>
-      </c>
-      <c r="K19" t="s">
         <v>504</v>
       </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
       <c r="L19">
-        <v>100</v>
-      </c>
-      <c r="M19" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19">
-        <v>0</v>
+      <c r="O19" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -4824,37 +4864,37 @@
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
+        <v>585</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
         <v>117</v>
       </c>
-      <c r="F20">
+      <c r="E20">
         <v>77</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>161</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="H20" t="s">
+        <v>344</v>
+      </c>
       <c r="I20" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="J20" t="s">
-        <v>426</v>
-      </c>
-      <c r="K20" t="s">
         <v>508</v>
       </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
       <c r="L20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -4862,7 +4902,7 @@
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4871,46 +4911,46 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
+        <v>585</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
         <v>115</v>
       </c>
-      <c r="F21">
+      <c r="E21">
         <v>78</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>162</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="H21" t="s">
+        <v>345</v>
+      </c>
       <c r="I21" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="J21" t="s">
-        <v>427</v>
-      </c>
-      <c r="K21" t="s">
         <v>509</v>
       </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
       <c r="L21">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21">
-        <v>0</v>
+      <c r="O21" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -4918,46 +4958,46 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
+        <v>585</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
         <v>110</v>
       </c>
-      <c r="F22">
+      <c r="E22">
         <v>77</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>163</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="H22" t="s">
+        <v>346</v>
+      </c>
       <c r="I22" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="J22" t="s">
-        <v>428</v>
-      </c>
-      <c r="K22" t="s">
         <v>510</v>
       </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
       <c r="L22">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -4965,46 +5005,46 @@
         <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
+        <v>585</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s">
         <v>110</v>
       </c>
-      <c r="F23">
+      <c r="E23">
         <v>77</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>255</v>
       </c>
+      <c r="H23" t="s">
+        <v>347</v>
+      </c>
       <c r="I23" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="J23" t="s">
-        <v>429</v>
-      </c>
-      <c r="K23" t="s">
         <v>511</v>
       </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
       <c r="L23">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -5012,43 +5052,43 @@
         <v>0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
+        <v>586</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
         <v>118</v>
       </c>
-      <c r="F24">
+      <c r="E24">
         <v>43</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="I24" t="s">
+        <v>412</v>
+      </c>
       <c r="J24" t="s">
-        <v>412</v>
-      </c>
-      <c r="K24" t="s">
         <v>512</v>
       </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
       <c r="L24">
-        <v>100</v>
-      </c>
-      <c r="M24" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>0</v>
+      <c r="O24" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -5056,46 +5096,46 @@
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
+        <v>586</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
         <v>119</v>
       </c>
-      <c r="F25">
+      <c r="E25">
         <v>41</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="H25" t="s">
+        <v>348</v>
+      </c>
       <c r="I25" t="s">
-        <v>348</v>
+        <v>430</v>
       </c>
       <c r="J25" t="s">
-        <v>430</v>
-      </c>
-      <c r="K25" t="s">
         <v>513</v>
       </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
       <c r="L25">
-        <v>100</v>
-      </c>
-      <c r="M25" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25">
-        <v>0</v>
+      <c r="O25" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -5103,37 +5143,37 @@
         <v>6</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
+        <v>586</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
         <v>119</v>
       </c>
-      <c r="F26">
+      <c r="E26">
         <v>41</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="H26" t="s">
+        <v>349</v>
+      </c>
       <c r="I26" t="s">
-        <v>349</v>
+        <v>431</v>
       </c>
       <c r="J26" t="s">
-        <v>431</v>
-      </c>
-      <c r="K26" t="s">
         <v>514</v>
       </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
       <c r="L26">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -5141,7 +5181,7 @@
       <c r="N26">
         <v>1</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5150,46 +5190,46 @@
         <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
+        <v>586</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" t="s">
         <v>119</v>
       </c>
-      <c r="F27">
+      <c r="E27">
         <v>41</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="H27" t="s">
+        <v>350</v>
+      </c>
       <c r="I27" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="J27" t="s">
-        <v>432</v>
-      </c>
-      <c r="K27" t="s">
         <v>515</v>
       </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
       <c r="L27">
-        <v>100</v>
+        <v>0.75</v>
       </c>
       <c r="M27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -5197,46 +5237,46 @@
         <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
+        <v>586</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" t="s">
         <v>120</v>
       </c>
-      <c r="F28">
+      <c r="E28">
         <v>41</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="H28" t="s">
+        <v>351</v>
+      </c>
       <c r="I28" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="J28" t="s">
-        <v>433</v>
-      </c>
-      <c r="K28" t="s">
         <v>516</v>
       </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
       <c r="L28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N28">
-        <v>0.6</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -5244,45 +5284,45 @@
         <v>0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
+        <v>587</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" t="s">
         <v>118</v>
       </c>
-      <c r="F29">
+      <c r="E29">
         <v>23</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>261</v>
       </c>
+      <c r="H29" t="s">
+        <v>352</v>
+      </c>
       <c r="I29" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="J29" t="s">
-        <v>434</v>
-      </c>
-      <c r="K29" t="s">
         <v>517</v>
       </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
       <c r="L29">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5291,42 +5331,42 @@
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0</v>
+        <v>587</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" t="s">
         <v>121</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
         <v>170</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="I30" t="s">
+        <v>412</v>
+      </c>
       <c r="J30" t="s">
-        <v>412</v>
-      </c>
-      <c r="K30" t="s">
         <v>518</v>
       </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
       <c r="L30">
-        <v>100</v>
-      </c>
-      <c r="M30" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5335,45 +5375,45 @@
         <v>6</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
+        <v>587</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
         <v>118</v>
       </c>
-      <c r="F31">
+      <c r="E31">
         <v>23</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F31" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>263</v>
       </c>
+      <c r="H31" t="s">
+        <v>353</v>
+      </c>
       <c r="I31" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="J31" t="s">
-        <v>435</v>
-      </c>
-      <c r="K31" t="s">
         <v>519</v>
       </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
       <c r="L31">
-        <v>100</v>
-      </c>
-      <c r="M31" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5382,45 +5422,45 @@
         <v>9</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0</v>
+        <v>587</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" t="s">
         <v>122</v>
       </c>
-      <c r="F32">
+      <c r="E32">
         <v>23</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
         <v>172</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="H32" t="s">
+        <v>354</v>
+      </c>
       <c r="I32" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="J32" t="s">
-        <v>436</v>
-      </c>
-      <c r="K32" t="s">
         <v>520</v>
       </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
       <c r="L32">
-        <v>100</v>
-      </c>
-      <c r="M32" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5428,187 +5468,187 @@
       <c r="A33" s="1">
         <v>0</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
+      <c r="B33" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" t="s">
         <v>123</v>
       </c>
-      <c r="F33">
+      <c r="E33">
         <v>56</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F33" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>265</v>
       </c>
+      <c r="H33" t="s">
+        <v>355</v>
+      </c>
       <c r="I33" t="s">
-        <v>355</v>
+        <v>437</v>
       </c>
       <c r="J33" t="s">
-        <v>437</v>
-      </c>
-      <c r="K33" t="s">
         <v>521</v>
       </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
       <c r="L33">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
+      <c r="B34" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" t="s">
         <v>124</v>
       </c>
-      <c r="F34">
+      <c r="E34">
         <v>60</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s">
         <v>174</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="H34" t="s">
+        <v>356</v>
+      </c>
       <c r="I34" t="s">
-        <v>356</v>
+        <v>438</v>
       </c>
       <c r="J34" t="s">
-        <v>438</v>
-      </c>
-      <c r="K34" t="s">
         <v>522</v>
       </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
       <c r="L34">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
-      <c r="O34">
-        <v>0</v>
+      <c r="O34" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
+      <c r="B35" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" t="s">
         <v>125</v>
       </c>
-      <c r="F35">
+      <c r="E35">
         <v>60</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>175</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="H35" t="s">
+        <v>357</v>
+      </c>
       <c r="I35" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="J35" t="s">
-        <v>439</v>
-      </c>
-      <c r="K35" t="s">
         <v>523</v>
       </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
       <c r="L35">
-        <v>100</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="M35">
-        <v>0.1851851851851852</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>9</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
+      <c r="B36" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" t="s">
         <v>126</v>
       </c>
-      <c r="F36">
+      <c r="E36">
         <v>52</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s">
         <v>176</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="H36" t="s">
+        <v>358</v>
+      </c>
       <c r="I36" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="J36" t="s">
-        <v>440</v>
-      </c>
-      <c r="K36" t="s">
         <v>524</v>
       </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
       <c r="L36">
-        <v>100</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="M36">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5616,93 +5656,93 @@
       <c r="A37" s="1">
         <v>12</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1</v>
+      <c r="B37" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" t="s">
         <v>108</v>
       </c>
-      <c r="F37">
+      <c r="E37">
         <v>60</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="H37" t="s">
+        <v>359</v>
+      </c>
       <c r="I37" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="J37" t="s">
-        <v>441</v>
-      </c>
-      <c r="K37" t="s">
         <v>525</v>
       </c>
+      <c r="K37">
+        <v>90</v>
+      </c>
       <c r="L37">
-        <v>90</v>
-      </c>
-      <c r="M37" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
-      <c r="O37">
-        <v>0</v>
+      <c r="O37" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>15</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0</v>
+      <c r="B38" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" t="s">
         <v>127</v>
       </c>
-      <c r="F38">
+      <c r="E38">
         <v>60</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F38" t="s">
         <v>178</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="H38" t="s">
+        <v>360</v>
+      </c>
       <c r="I38" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
       <c r="J38" t="s">
-        <v>442</v>
-      </c>
-      <c r="K38" t="s">
         <v>526</v>
       </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
       <c r="L38">
-        <v>100</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="M38">
-        <v>0.22222222222222221</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5710,47 +5750,47 @@
       <c r="A39" s="1">
         <v>18</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1</v>
+      <c r="B39" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" t="s">
         <v>108</v>
       </c>
-      <c r="F39">
+      <c r="E39">
         <v>60</v>
       </c>
-      <c r="G39" t="s">
+      <c r="F39" t="s">
         <v>179</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="H39" t="s">
+        <v>361</v>
+      </c>
       <c r="I39" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="J39" t="s">
-        <v>443</v>
-      </c>
-      <c r="K39" t="s">
         <v>527</v>
       </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
       <c r="L39">
-        <v>100</v>
-      </c>
-      <c r="M39" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
-      <c r="O39">
-        <v>0</v>
+      <c r="O39" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -5758,46 +5798,46 @@
         <v>0</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1</v>
+        <v>589</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" t="s">
         <v>128</v>
       </c>
-      <c r="F40">
+      <c r="E40">
         <v>53</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s">
         <v>180</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="H40" t="s">
+        <v>362</v>
+      </c>
       <c r="I40" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="J40" t="s">
-        <v>444</v>
-      </c>
-      <c r="K40" t="s">
         <v>528</v>
       </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
       <c r="L40">
-        <v>100</v>
+        <v>0.4</v>
       </c>
       <c r="M40">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="O40">
-        <v>0</v>
+      <c r="O40" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -5805,37 +5845,37 @@
         <v>3</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1</v>
+        <v>589</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" t="s">
         <v>129</v>
       </c>
-      <c r="F41">
+      <c r="E41">
         <v>48</v>
       </c>
-      <c r="G41" t="s">
+      <c r="F41" t="s">
         <v>181</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="H41" t="s">
+        <v>363</v>
+      </c>
       <c r="I41" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="J41" t="s">
-        <v>445</v>
-      </c>
-      <c r="K41" t="s">
         <v>529</v>
       </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
       <c r="L41">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -5843,8 +5883,8 @@
       <c r="N41">
         <v>0</v>
       </c>
-      <c r="O41">
-        <v>0</v>
+      <c r="O41" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -5852,37 +5892,37 @@
         <v>6</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="C42" s="5">
-        <v>1</v>
+        <v>589</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" t="s">
         <v>130</v>
       </c>
-      <c r="F42">
+      <c r="E42">
         <v>42</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
         <v>182</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>274</v>
       </c>
+      <c r="H42" t="s">
+        <v>364</v>
+      </c>
       <c r="I42" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="J42" t="s">
-        <v>446</v>
-      </c>
-      <c r="K42" t="s">
         <v>530</v>
       </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
       <c r="L42">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -5890,54 +5930,54 @@
       <c r="N42">
         <v>0</v>
       </c>
-      <c r="O42">
-        <v>0</v>
+      <c r="O42" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1</v>
+      <c r="B43" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" t="s">
         <v>116</v>
       </c>
-      <c r="F43">
+      <c r="E43">
         <v>34</v>
       </c>
-      <c r="G43" t="s">
+      <c r="F43" t="s">
         <v>183</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="H43" t="s">
+        <v>365</v>
+      </c>
       <c r="I43" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="J43" t="s">
-        <v>447</v>
-      </c>
-      <c r="K43" t="s">
         <v>531</v>
       </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
       <c r="L43">
-        <v>100</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="M43">
-        <v>0.42857142857142849</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5945,46 +5985,46 @@
       <c r="A44" s="1">
         <v>3</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1</v>
+      <c r="B44" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" t="s">
         <v>125</v>
       </c>
-      <c r="F44">
+      <c r="E44">
         <v>34</v>
       </c>
-      <c r="G44" t="s">
+      <c r="F44" t="s">
         <v>184</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="H44" t="s">
+        <v>366</v>
+      </c>
       <c r="I44" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="J44" t="s">
-        <v>448</v>
-      </c>
-      <c r="K44" t="s">
         <v>532</v>
       </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
       <c r="L44">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N44">
-        <v>0.875</v>
-      </c>
-      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="O44" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5992,46 +6032,46 @@
       <c r="A45" s="1">
         <v>6</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1</v>
+      <c r="B45" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" t="s">
         <v>124</v>
       </c>
-      <c r="F45">
+      <c r="E45">
         <v>34</v>
       </c>
-      <c r="G45" t="s">
+      <c r="F45" t="s">
         <v>185</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="H45" t="s">
+        <v>367</v>
+      </c>
       <c r="I45" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="J45" t="s">
-        <v>449</v>
-      </c>
-      <c r="K45" t="s">
         <v>533</v>
       </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
       <c r="L45">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="M45">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>1</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6039,38 +6079,38 @@
       <c r="A46" s="1">
         <v>9</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1</v>
+      <c r="B46" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" t="s">
         <v>125</v>
       </c>
-      <c r="F46">
+      <c r="E46">
         <v>34</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F46" t="s">
         <v>186</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="H46" t="s">
+        <v>368</v>
+      </c>
       <c r="I46" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="J46" t="s">
-        <v>450</v>
-      </c>
-      <c r="K46" t="s">
         <v>534</v>
       </c>
+      <c r="K46">
+        <v>100</v>
+      </c>
       <c r="L46">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -6078,7 +6118,7 @@
       <c r="N46">
         <v>1</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="15">
         <v>1</v>
       </c>
     </row>
@@ -6086,46 +6126,46 @@
       <c r="A47" s="1">
         <v>12</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C47" s="5">
-        <v>1</v>
+      <c r="B47" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" t="s">
         <v>124</v>
       </c>
-      <c r="F47">
+      <c r="E47">
         <v>34</v>
       </c>
-      <c r="G47" t="s">
+      <c r="F47" t="s">
         <v>187</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="H47" t="s">
+        <v>369</v>
+      </c>
       <c r="I47" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="J47" t="s">
-        <v>451</v>
-      </c>
-      <c r="K47" t="s">
         <v>535</v>
       </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
       <c r="L47">
-        <v>100</v>
+        <v>0.4</v>
       </c>
       <c r="M47">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="O47" s="15">
         <v>1</v>
       </c>
     </row>
@@ -6133,46 +6173,46 @@
       <c r="A48" s="1">
         <v>0</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C48" s="5">
-        <v>1</v>
+      <c r="B48" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" t="s">
         <v>131</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
         <v>188</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="H48" t="s">
+        <v>370</v>
+      </c>
       <c r="I48" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="J48" t="s">
-        <v>452</v>
-      </c>
-      <c r="K48" t="s">
         <v>536</v>
       </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
       <c r="L48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="O48" s="15">
         <v>1</v>
       </c>
     </row>
@@ -6180,46 +6220,46 @@
       <c r="A49" s="1">
         <v>3</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1</v>
+      <c r="B49" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" t="s">
         <v>132</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
         <v>189</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="H49" t="s">
+        <v>371</v>
+      </c>
       <c r="I49" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="J49" t="s">
-        <v>453</v>
-      </c>
-      <c r="K49" t="s">
         <v>537</v>
       </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
       <c r="L49">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="O49" s="15">
         <v>1</v>
       </c>
     </row>
@@ -6227,181 +6267,181 @@
       <c r="A50" s="1">
         <v>6</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C50" s="5">
-        <v>1</v>
+      <c r="B50" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" t="s">
         <v>131</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
         <v>190</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="I50" t="s">
+        <v>412</v>
+      </c>
       <c r="J50" t="s">
-        <v>412</v>
-      </c>
-      <c r="K50" t="s">
         <v>538</v>
       </c>
+      <c r="K50">
+        <v>100</v>
+      </c>
       <c r="L50">
-        <v>100</v>
-      </c>
-      <c r="M50" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="O50">
-        <v>0</v>
+      <c r="O50" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>9</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1</v>
+      <c r="B51" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" t="s">
         <v>131</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
         <v>191</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>283</v>
       </c>
+      <c r="H51" t="s">
+        <v>372</v>
+      </c>
       <c r="I51" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="J51" t="s">
-        <v>454</v>
-      </c>
-      <c r="K51" t="s">
         <v>539</v>
       </c>
+      <c r="K51">
+        <v>100</v>
+      </c>
       <c r="L51">
-        <v>100</v>
-      </c>
-      <c r="M51" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
-      <c r="O51">
-        <v>0</v>
+      <c r="O51" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>12</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1</v>
+      <c r="B52" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" t="s">
         <v>133</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
         <v>192</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="I52" t="s">
+        <v>412</v>
+      </c>
       <c r="J52" t="s">
-        <v>412</v>
-      </c>
-      <c r="K52" t="s">
         <v>538</v>
       </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
       <c r="L52">
-        <v>100</v>
-      </c>
-      <c r="M52" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
-      <c r="O52">
-        <v>0</v>
+      <c r="O52" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>15</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1</v>
+      <c r="B53" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" t="s">
         <v>132</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
         <v>193</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="H53" t="s">
+        <v>373</v>
+      </c>
       <c r="I53" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="J53" t="s">
-        <v>455</v>
-      </c>
-      <c r="K53" t="s">
         <v>540</v>
       </c>
+      <c r="K53">
+        <v>100</v>
+      </c>
       <c r="L53">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>1</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="15">
         <v>1</v>
       </c>
     </row>
@@ -6409,43 +6449,43 @@
       <c r="A54" s="1">
         <v>6</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C54" s="5">
-        <v>0</v>
+      <c r="B54" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" t="s">
         <v>114</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
         <v>194</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="I54" t="s">
+        <v>412</v>
+      </c>
       <c r="J54" t="s">
-        <v>412</v>
-      </c>
-      <c r="K54" t="s">
         <v>541</v>
       </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
       <c r="L54">
-        <v>100</v>
-      </c>
-      <c r="M54" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="15">
         <v>0</v>
       </c>
     </row>
@@ -6453,561 +6493,601 @@
       <c r="A55" s="1">
         <v>9</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C55" s="5">
-        <v>0</v>
+      <c r="B55" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" t="s">
         <v>108</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
         <v>195</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="H55" t="s">
+        <v>374</v>
+      </c>
       <c r="I55" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="J55" t="s">
-        <v>456</v>
-      </c>
-      <c r="K55" t="s">
         <v>542</v>
       </c>
+      <c r="K55">
+        <v>100</v>
+      </c>
       <c r="L55">
-        <v>100</v>
-      </c>
-      <c r="M55" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>15</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H56" t="s">
+        <v>375</v>
+      </c>
+      <c r="I56" t="s">
+        <v>457</v>
+      </c>
+      <c r="J56" t="s">
+        <v>543</v>
+      </c>
+      <c r="K56">
+        <v>100</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>18</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>197</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I57" t="s">
+        <v>412</v>
+      </c>
+      <c r="J57" t="s">
+        <v>544</v>
+      </c>
+      <c r="K57">
+        <v>91</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>0</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I58" t="s">
+        <v>458</v>
+      </c>
+      <c r="J58" t="s">
+        <v>545</v>
+      </c>
+      <c r="K58">
+        <v>100</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59">
         <v>65</v>
       </c>
-      <c r="E56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I56" t="s">
-        <v>375</v>
-      </c>
-      <c r="J56" t="s">
-        <v>457</v>
-      </c>
-      <c r="K56" t="s">
-        <v>543</v>
-      </c>
-      <c r="L56">
-        <v>100</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>18</v>
-      </c>
-      <c r="B57" s="10" t="s">
+      <c r="F59" t="s">
+        <v>199</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H59" t="s">
+        <v>377</v>
+      </c>
+      <c r="I59" t="s">
+        <v>459</v>
+      </c>
+      <c r="J59" t="s">
+        <v>546</v>
+      </c>
+      <c r="K59">
+        <v>100</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>197</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H60" t="s">
+        <v>378</v>
+      </c>
+      <c r="I60" t="s">
+        <v>460</v>
+      </c>
+      <c r="J60" t="s">
+        <v>547</v>
+      </c>
+      <c r="K60">
+        <v>100</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>9</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61">
+        <v>65</v>
+      </c>
+      <c r="F61" t="s">
+        <v>201</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H61" t="s">
+        <v>379</v>
+      </c>
+      <c r="I61" t="s">
+        <v>461</v>
+      </c>
+      <c r="J61" t="s">
+        <v>548</v>
+      </c>
+      <c r="K61">
+        <v>100</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>12</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62">
+        <v>65</v>
+      </c>
+      <c r="F62" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I62" t="s">
         <v>412</v>
       </c>
-      <c r="K57" t="s">
-        <v>544</v>
-      </c>
-      <c r="L57">
-        <v>91</v>
-      </c>
-      <c r="M57" t="s">
-        <v>581</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>0</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="5"/>
-      <c r="D58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>198</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I58" t="s">
-        <v>376</v>
-      </c>
-      <c r="J58" t="s">
-        <v>458</v>
-      </c>
-      <c r="K58" t="s">
-        <v>545</v>
-      </c>
-      <c r="L58">
-        <v>100</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>3</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="5"/>
-      <c r="D59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="J62" t="s">
+        <v>549</v>
+      </c>
+      <c r="K62">
+        <v>100</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>15</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
         <v>113</v>
       </c>
-      <c r="F59">
+      <c r="E63">
         <v>65</v>
       </c>
-      <c r="G59" t="s">
-        <v>199</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I59" t="s">
-        <v>377</v>
-      </c>
-      <c r="J59" t="s">
-        <v>459</v>
-      </c>
-      <c r="K59" t="s">
-        <v>546</v>
-      </c>
-      <c r="L59">
-        <v>100</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>6</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="5"/>
-      <c r="D60" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" t="s">
-        <v>113</v>
-      </c>
-      <c r="F60">
-        <v>65</v>
-      </c>
-      <c r="G60" t="s">
-        <v>200</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I60" t="s">
-        <v>378</v>
-      </c>
-      <c r="J60" t="s">
-        <v>460</v>
-      </c>
-      <c r="K60" t="s">
-        <v>547</v>
-      </c>
-      <c r="L60">
-        <v>100</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>9</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="5"/>
-      <c r="D61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61" t="s">
-        <v>135</v>
-      </c>
-      <c r="F61">
-        <v>65</v>
-      </c>
-      <c r="G61" t="s">
-        <v>201</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="I61" t="s">
-        <v>379</v>
-      </c>
-      <c r="J61" t="s">
-        <v>461</v>
-      </c>
-      <c r="K61" t="s">
-        <v>548</v>
-      </c>
-      <c r="L61">
-        <v>100</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>12</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="5"/>
-      <c r="D62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62">
-        <v>65</v>
-      </c>
-      <c r="G62" t="s">
-        <v>202</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="J62" t="s">
-        <v>412</v>
-      </c>
-      <c r="K62" t="s">
-        <v>549</v>
-      </c>
-      <c r="L62">
-        <v>100</v>
-      </c>
-      <c r="M62" t="s">
-        <v>581</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>15</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="5"/>
-      <c r="D63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" t="s">
-        <v>113</v>
-      </c>
-      <c r="F63">
-        <v>65</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F63" t="s">
         <v>203</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="H63" t="s">
+        <v>380</v>
+      </c>
       <c r="I63" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="J63" t="s">
-        <v>462</v>
-      </c>
-      <c r="K63" t="s">
         <v>550</v>
       </c>
+      <c r="K63">
+        <v>100</v>
+      </c>
       <c r="L63">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
-      <c r="O63">
-        <v>0</v>
+      <c r="O63" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>18</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="5"/>
+      <c r="B64" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
       <c r="D64" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" t="s">
         <v>115</v>
       </c>
-      <c r="F64">
+      <c r="E64">
         <v>65</v>
       </c>
-      <c r="G64" t="s">
+      <c r="F64" t="s">
         <v>204</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="H64" t="s">
+        <v>339</v>
+      </c>
       <c r="I64" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="J64" t="s">
-        <v>421</v>
-      </c>
-      <c r="K64" t="s">
         <v>551</v>
       </c>
+      <c r="K64">
+        <v>100</v>
+      </c>
       <c r="L64">
-        <v>100</v>
-      </c>
-      <c r="M64" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
-      <c r="O64">
-        <v>0</v>
+      <c r="O64" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>21</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="5"/>
+      <c r="B65" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
       <c r="D65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" t="s">
         <v>128</v>
       </c>
-      <c r="F65">
+      <c r="E65">
         <v>65</v>
       </c>
-      <c r="G65" t="s">
+      <c r="F65" t="s">
         <v>205</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="H65" t="s">
+        <v>381</v>
+      </c>
       <c r="I65" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="J65" t="s">
-        <v>463</v>
-      </c>
-      <c r="K65" t="s">
         <v>552</v>
       </c>
+      <c r="K65">
+        <v>100</v>
+      </c>
       <c r="L65">
-        <v>100</v>
-      </c>
-      <c r="M65" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
-      <c r="O65">
-        <v>0</v>
+      <c r="O65" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="5"/>
+      <c r="B66" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
       <c r="D66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" t="s">
         <v>136</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
         <v>206</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="I66" t="s">
+        <v>412</v>
+      </c>
       <c r="J66" t="s">
-        <v>412</v>
-      </c>
-      <c r="K66" t="s">
         <v>553</v>
       </c>
+      <c r="K66">
+        <v>100</v>
+      </c>
       <c r="L66">
-        <v>100</v>
-      </c>
-      <c r="M66" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
-      <c r="O66">
-        <v>0</v>
+      <c r="O66" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="5"/>
+      <c r="B67" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
       <c r="D67" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" t="s">
         <v>136</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
         <v>207</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="H67" t="s">
+        <v>382</v>
+      </c>
       <c r="I67" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="J67" t="s">
-        <v>464</v>
-      </c>
-      <c r="K67" t="s">
         <v>554</v>
       </c>
+      <c r="K67">
+        <v>100</v>
+      </c>
       <c r="L67">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="O67" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7015,34 +7095,38 @@
       <c r="A68" s="1">
         <v>0</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="5"/>
+      <c r="B68" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
       <c r="D68" t="s">
-        <v>77</v>
-      </c>
-      <c r="E68" t="s">
         <v>137</v>
       </c>
-      <c r="F68">
+      <c r="E68">
         <v>34</v>
       </c>
-      <c r="G68" t="s">
+      <c r="F68" t="s">
         <v>208</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>300</v>
       </c>
+      <c r="H68" t="s">
+        <v>383</v>
+      </c>
       <c r="I68" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
       <c r="J68" t="s">
-        <v>465</v>
-      </c>
-      <c r="K68" t="s">
         <v>555</v>
       </c>
+      <c r="K68">
+        <v>100</v>
+      </c>
       <c r="L68">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -7050,7 +7134,7 @@
       <c r="N68">
         <v>1</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7058,34 +7142,38 @@
       <c r="A69" s="1">
         <v>3</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="5"/>
+      <c r="B69" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
       <c r="D69" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" t="s">
         <v>135</v>
       </c>
-      <c r="F69">
+      <c r="E69">
         <v>34</v>
       </c>
-      <c r="G69" t="s">
+      <c r="F69" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="H69" t="s">
+        <v>384</v>
+      </c>
       <c r="I69" t="s">
-        <v>384</v>
+        <v>466</v>
       </c>
       <c r="J69" t="s">
-        <v>466</v>
-      </c>
-      <c r="K69" t="s">
         <v>556</v>
       </c>
+      <c r="K69">
+        <v>100</v>
+      </c>
       <c r="L69">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -7093,7 +7181,7 @@
       <c r="N69">
         <v>1</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7101,34 +7189,38 @@
       <c r="A70" s="1">
         <v>6</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="5"/>
+      <c r="B70" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
       <c r="D70" t="s">
-        <v>79</v>
-      </c>
-      <c r="E70" t="s">
         <v>116</v>
       </c>
-      <c r="F70">
+      <c r="E70">
         <v>34</v>
       </c>
-      <c r="G70" t="s">
+      <c r="F70" t="s">
         <v>210</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>302</v>
       </c>
+      <c r="H70" t="s">
+        <v>385</v>
+      </c>
       <c r="I70" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
       <c r="J70" t="s">
-        <v>467</v>
-      </c>
-      <c r="K70" t="s">
         <v>557</v>
       </c>
+      <c r="K70">
+        <v>100</v>
+      </c>
       <c r="L70">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -7136,7 +7228,7 @@
       <c r="N70">
         <v>1</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7144,34 +7236,38 @@
       <c r="A71" s="1">
         <v>9</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="5"/>
+      <c r="B71" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
       <c r="D71" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" t="s">
         <v>115</v>
       </c>
-      <c r="F71">
+      <c r="E71">
         <v>34</v>
       </c>
-      <c r="G71" t="s">
+      <c r="F71" t="s">
         <v>211</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="H71" t="s">
+        <v>386</v>
+      </c>
       <c r="I71" t="s">
-        <v>386</v>
+        <v>468</v>
       </c>
       <c r="J71" t="s">
-        <v>468</v>
-      </c>
-      <c r="K71" t="s">
         <v>557</v>
       </c>
+      <c r="K71">
+        <v>100</v>
+      </c>
       <c r="L71">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -7179,7 +7275,7 @@
       <c r="N71">
         <v>1</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7187,85 +7283,93 @@
       <c r="A72" s="1">
         <v>12</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="5"/>
+      <c r="B72" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
       <c r="D72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" t="s">
         <v>114</v>
       </c>
-      <c r="F72">
+      <c r="E72">
         <v>34</v>
       </c>
-      <c r="G72" t="s">
+      <c r="F72" t="s">
         <v>212</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="H72" t="s">
+        <v>387</v>
+      </c>
       <c r="I72" t="s">
-        <v>387</v>
+        <v>469</v>
       </c>
       <c r="J72" t="s">
-        <v>469</v>
-      </c>
-      <c r="K72" t="s">
         <v>558</v>
       </c>
+      <c r="K72">
+        <v>100</v>
+      </c>
       <c r="L72">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
-      <c r="O72">
-        <v>0</v>
+      <c r="O72" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>15</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="5"/>
+      <c r="B73" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
       <c r="D73" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" t="s">
         <v>114</v>
       </c>
-      <c r="F73">
+      <c r="E73">
         <v>34</v>
       </c>
-      <c r="G73" t="s">
+      <c r="F73" t="s">
         <v>213</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="H73" t="s">
+        <v>388</v>
+      </c>
       <c r="I73" t="s">
-        <v>388</v>
+        <v>470</v>
       </c>
       <c r="J73" t="s">
-        <v>470</v>
-      </c>
-      <c r="K73" t="s">
         <v>559</v>
       </c>
+      <c r="K73">
+        <v>100</v>
+      </c>
       <c r="L73">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="O73" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7273,85 +7377,93 @@
       <c r="A74" s="1">
         <v>18</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="5"/>
+      <c r="B74" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
       <c r="D74" t="s">
-        <v>83</v>
-      </c>
-      <c r="E74" t="s">
         <v>116</v>
       </c>
-      <c r="F74">
+      <c r="E74">
         <v>34</v>
       </c>
-      <c r="G74" t="s">
+      <c r="F74" t="s">
         <v>214</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="H74" t="s">
+        <v>389</v>
+      </c>
       <c r="I74" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="J74" t="s">
-        <v>471</v>
-      </c>
-      <c r="K74" t="s">
         <v>560</v>
       </c>
+      <c r="K74">
+        <v>100</v>
+      </c>
       <c r="L74">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O74" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="5"/>
+      <c r="B75" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
       <c r="D75" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" t="s">
         <v>138</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
         <v>215</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="H75" t="s">
+        <v>390</v>
+      </c>
       <c r="I75" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="J75" t="s">
-        <v>472</v>
-      </c>
-      <c r="K75" t="s">
         <v>561</v>
       </c>
+      <c r="K75">
+        <v>100</v>
+      </c>
       <c r="L75">
-        <v>100</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M75">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <v>1</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7359,42 +7471,46 @@
       <c r="A76" s="1">
         <v>3</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="5"/>
+      <c r="B76" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
       <c r="D76" t="s">
-        <v>85</v>
-      </c>
-      <c r="E76" t="s">
         <v>138</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
         <v>216</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="H76" t="s">
+        <v>391</v>
+      </c>
       <c r="I76" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="J76" t="s">
-        <v>473</v>
-      </c>
-      <c r="K76" t="s">
         <v>562</v>
       </c>
+      <c r="K76">
+        <v>100</v>
+      </c>
       <c r="L76">
-        <v>100</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M76">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="O76" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7402,42 +7518,46 @@
       <c r="A77" s="1">
         <v>6</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="5"/>
+      <c r="B77" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
       <c r="D77" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" t="s">
         <v>138</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
         <v>217</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="H77" t="s">
+        <v>392</v>
+      </c>
       <c r="I77" t="s">
-        <v>392</v>
+        <v>474</v>
       </c>
       <c r="J77" t="s">
-        <v>474</v>
-      </c>
-      <c r="K77" t="s">
         <v>563</v>
       </c>
+      <c r="K77">
+        <v>100</v>
+      </c>
       <c r="L77">
-        <v>100</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="M77">
-        <v>0.77777777777777779</v>
+        <v>1</v>
       </c>
       <c r="N77">
         <v>1</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7445,42 +7565,46 @@
       <c r="A78" s="1">
         <v>9</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="5"/>
+      <c r="B78" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
       <c r="D78" t="s">
-        <v>87</v>
-      </c>
-      <c r="E78" t="s">
         <v>117</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
         <v>218</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="H78" t="s">
+        <v>393</v>
+      </c>
       <c r="I78" t="s">
-        <v>393</v>
+        <v>475</v>
       </c>
       <c r="J78" t="s">
-        <v>475</v>
-      </c>
-      <c r="K78" t="s">
         <v>564</v>
       </c>
+      <c r="K78">
+        <v>100</v>
+      </c>
       <c r="L78">
-        <v>100</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="M78">
-        <v>3.5714285714285712E-2</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <v>1</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7488,42 +7612,46 @@
       <c r="A79" s="1">
         <v>12</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="5"/>
+      <c r="B79" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
       <c r="D79" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" t="s">
         <v>117</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
         <v>219</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="H79" t="s">
+        <v>394</v>
+      </c>
       <c r="I79" t="s">
-        <v>394</v>
+        <v>476</v>
       </c>
       <c r="J79" t="s">
-        <v>476</v>
-      </c>
-      <c r="K79" t="s">
         <v>565</v>
       </c>
+      <c r="K79">
+        <v>100</v>
+      </c>
       <c r="L79">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="O79" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7531,125 +7659,137 @@
       <c r="A80" s="1">
         <v>15</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="5"/>
+      <c r="B80" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
       <c r="D80" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80" t="s">
         <v>108</v>
       </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
         <v>220</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="H80" t="s">
+        <v>395</v>
+      </c>
       <c r="I80" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
       <c r="J80" t="s">
-        <v>477</v>
-      </c>
-      <c r="K80" t="s">
         <v>566</v>
       </c>
+      <c r="K80">
+        <v>100</v>
+      </c>
       <c r="L80">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O80" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="5"/>
+      <c r="B81" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
       <c r="D81" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" t="s">
         <v>110</v>
       </c>
-      <c r="F81">
+      <c r="E81">
         <v>58</v>
       </c>
-      <c r="G81" t="s">
+      <c r="F81" t="s">
         <v>221</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="I81" t="s">
+        <v>412</v>
+      </c>
       <c r="J81" t="s">
-        <v>412</v>
-      </c>
-      <c r="K81" t="s">
         <v>567</v>
       </c>
+      <c r="K81">
+        <v>100</v>
+      </c>
       <c r="L81">
-        <v>100</v>
-      </c>
-      <c r="M81" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
-      <c r="O81">
-        <v>0</v>
+      <c r="O81" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>3</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="5"/>
+      <c r="B82" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C82" t="s">
+        <v>91</v>
+      </c>
       <c r="D82" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" t="s">
         <v>139</v>
       </c>
-      <c r="F82">
+      <c r="E82">
         <v>58</v>
       </c>
-      <c r="G82" t="s">
+      <c r="F82" t="s">
         <v>222</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="H82" t="s">
+        <v>396</v>
+      </c>
       <c r="I82" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="J82" t="s">
-        <v>478</v>
-      </c>
-      <c r="K82" t="s">
         <v>568</v>
       </c>
+      <c r="K82">
+        <v>100</v>
+      </c>
       <c r="L82">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="O82" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7657,85 +7797,93 @@
       <c r="A83" s="1">
         <v>6</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="5"/>
+      <c r="B83" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
       <c r="D83" t="s">
-        <v>92</v>
-      </c>
-      <c r="E83" t="s">
         <v>118</v>
       </c>
-      <c r="F83">
+      <c r="E83">
         <v>58</v>
       </c>
-      <c r="G83" t="s">
+      <c r="F83" t="s">
         <v>223</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>315</v>
       </c>
+      <c r="H83" t="s">
+        <v>397</v>
+      </c>
       <c r="I83" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
       <c r="J83" t="s">
-        <v>479</v>
-      </c>
-      <c r="K83" t="s">
         <v>569</v>
       </c>
+      <c r="K83">
+        <v>100</v>
+      </c>
       <c r="L83">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
-      <c r="O83">
-        <v>0</v>
+      <c r="O83" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="5"/>
+      <c r="B84" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
       <c r="D84" t="s">
-        <v>93</v>
-      </c>
-      <c r="E84" t="s">
         <v>140</v>
       </c>
-      <c r="F84">
+      <c r="E84">
         <v>56</v>
       </c>
-      <c r="G84" t="s">
+      <c r="F84" t="s">
         <v>224</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>316</v>
       </c>
+      <c r="H84" t="s">
+        <v>398</v>
+      </c>
       <c r="I84" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="J84" t="s">
-        <v>480</v>
-      </c>
-      <c r="K84" t="s">
         <v>570</v>
       </c>
+      <c r="K84">
+        <v>100</v>
+      </c>
       <c r="L84">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="M84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="O84" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7743,42 +7891,46 @@
       <c r="A85" s="1">
         <v>3</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="5"/>
+      <c r="B85" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C85" t="s">
+        <v>94</v>
+      </c>
       <c r="D85" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" t="s">
         <v>140</v>
       </c>
-      <c r="F85">
+      <c r="E85">
         <v>56</v>
       </c>
-      <c r="G85" t="s">
+      <c r="F85" t="s">
         <v>225</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="H85" t="s">
+        <v>399</v>
+      </c>
       <c r="I85" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="J85" t="s">
-        <v>481</v>
-      </c>
-      <c r="K85" t="s">
         <v>571</v>
       </c>
+      <c r="K85">
+        <v>100</v>
+      </c>
       <c r="L85">
-        <v>100</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M85">
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="O85" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7786,42 +7938,46 @@
       <c r="A86" s="1">
         <v>0</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="5"/>
+      <c r="B86" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C86" t="s">
+        <v>95</v>
+      </c>
       <c r="D86" t="s">
-        <v>95</v>
-      </c>
-      <c r="E86" t="s">
         <v>125</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
         <v>226</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>318</v>
       </c>
+      <c r="H86" t="s">
+        <v>400</v>
+      </c>
       <c r="I86" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="J86" t="s">
-        <v>482</v>
-      </c>
-      <c r="K86" t="s">
         <v>572</v>
       </c>
+      <c r="K86">
+        <v>100</v>
+      </c>
       <c r="L86">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="O86" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7829,42 +7985,46 @@
       <c r="A87" s="1">
         <v>3</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="5"/>
+      <c r="B87" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C87" t="s">
+        <v>96</v>
+      </c>
       <c r="D87" t="s">
-        <v>96</v>
-      </c>
-      <c r="E87" t="s">
         <v>124</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
         <v>227</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="H87" t="s">
+        <v>401</v>
+      </c>
       <c r="I87" t="s">
-        <v>401</v>
+        <v>483</v>
       </c>
       <c r="J87" t="s">
-        <v>483</v>
-      </c>
-      <c r="K87" t="s">
         <v>573</v>
       </c>
+      <c r="K87">
+        <v>100</v>
+      </c>
       <c r="L87">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="O87" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7872,42 +8032,46 @@
       <c r="A88" s="1">
         <v>6</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="5"/>
+      <c r="B88" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
       <c r="D88" t="s">
-        <v>97</v>
-      </c>
-      <c r="E88" t="s">
         <v>141</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
         <v>228</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="H88" t="s">
+        <v>402</v>
+      </c>
       <c r="I88" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
       <c r="J88" t="s">
-        <v>484</v>
-      </c>
-      <c r="K88" t="s">
         <v>574</v>
       </c>
+      <c r="K88">
+        <v>100</v>
+      </c>
       <c r="L88">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="O88" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7915,42 +8079,46 @@
       <c r="A89" s="1">
         <v>9</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="5"/>
+      <c r="B89" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
       <c r="D89" t="s">
-        <v>98</v>
-      </c>
-      <c r="E89" t="s">
         <v>142</v>
       </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
         <v>229</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="H89" t="s">
+        <v>403</v>
+      </c>
       <c r="I89" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="J89" t="s">
-        <v>485</v>
-      </c>
-      <c r="K89" t="s">
         <v>575</v>
       </c>
+      <c r="K89">
+        <v>100</v>
+      </c>
       <c r="L89">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="O89" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7958,86 +8126,94 @@
       <c r="A90" s="1">
         <v>12</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="5"/>
+      <c r="B90" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
       <c r="D90" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90" t="s">
         <v>128</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
         <v>230</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="H90" t="s">
+        <v>404</v>
+      </c>
       <c r="I90" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="J90" t="s">
-        <v>486</v>
-      </c>
-      <c r="K90" t="s">
         <v>576</v>
       </c>
+      <c r="K90">
+        <v>89</v>
+      </c>
       <c r="L90">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O90" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="5"/>
+      <c r="B91" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C91" t="s">
+        <v>100</v>
+      </c>
       <c r="D91" t="s">
-        <v>100</v>
-      </c>
-      <c r="E91" t="s">
         <v>110</v>
       </c>
-      <c r="F91">
+      <c r="E91">
         <v>63</v>
       </c>
-      <c r="G91" t="s">
+      <c r="F91" t="s">
         <v>231</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="H91" t="s">
+        <v>405</v>
+      </c>
       <c r="I91" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="J91" t="s">
-        <v>487</v>
-      </c>
-      <c r="K91" t="s">
         <v>577</v>
       </c>
+      <c r="K91">
+        <v>100</v>
+      </c>
       <c r="L91">
-        <v>100</v>
-      </c>
-      <c r="M91" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
-      <c r="O91">
-        <v>0</v>
+      <c r="O91" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -8045,39 +8221,41 @@
         <v>0</v>
       </c>
       <c r="B92" s="7"/>
-      <c r="C92" s="5"/>
+      <c r="C92" t="s">
+        <v>101</v>
+      </c>
       <c r="D92" t="s">
-        <v>101</v>
-      </c>
-      <c r="E92" t="s">
         <v>110</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
         <v>232</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="I92" t="s">
+        <v>488</v>
+      </c>
       <c r="J92" t="s">
-        <v>488</v>
-      </c>
-      <c r="K92" t="s">
         <v>578</v>
       </c>
+      <c r="K92">
+        <v>100</v>
+      </c>
       <c r="L92">
-        <v>100</v>
-      </c>
-      <c r="M92" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
-      <c r="O92">
-        <v>0</v>
+      <c r="O92" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -8085,41 +8263,43 @@
         <v>3</v>
       </c>
       <c r="B93" s="7"/>
-      <c r="C93" s="5"/>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
       <c r="D93" t="s">
-        <v>102</v>
-      </c>
-      <c r="E93" t="s">
         <v>110</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
         <v>233</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="H93" t="s">
+        <v>406</v>
+      </c>
       <c r="I93" t="s">
-        <v>406</v>
+        <v>489</v>
       </c>
       <c r="J93" t="s">
-        <v>489</v>
-      </c>
-      <c r="K93" t="s">
         <v>579</v>
       </c>
+      <c r="K93">
+        <v>100</v>
+      </c>
       <c r="L93">
-        <v>100</v>
-      </c>
-      <c r="M93" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="O93" s="15">
         <v>1</v>
       </c>
     </row>
@@ -8128,139 +8308,141 @@
         <v>6</v>
       </c>
       <c r="B94" s="7"/>
-      <c r="C94" s="5"/>
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
       <c r="D94" t="s">
-        <v>103</v>
-      </c>
-      <c r="E94" t="s">
         <v>110</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
         <v>233</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="H94" t="s">
+        <v>407</v>
+      </c>
       <c r="I94" t="s">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="J94" t="s">
-        <v>490</v>
-      </c>
-      <c r="K94" t="s">
         <v>580</v>
       </c>
+      <c r="K94">
+        <v>100</v>
+      </c>
       <c r="L94">
-        <v>100</v>
-      </c>
-      <c r="M94" t="s">
-        <v>581</v>
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
-      <c r="O94">
-        <v>0</v>
+      <c r="O94" s="15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="H43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="H46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="H48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="H50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="H51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="H52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="H54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="H55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="H69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="H70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="H73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="H76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="H80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="H84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="H90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="H93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="H94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="G91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Desktop/Y4S1/BT4103/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Pictures\Y3S1\BT4013\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A912DF1A-4DFD-DD4A-8EF0-308548E60CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DBD3C9-6626-423F-8C86-894B36FB4BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22080" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="600">
   <si>
     <t>title</t>
   </si>
@@ -3402,17 +3402,68 @@
     <t>Counter({'Ricky': 2, 'Mohammad': 1, 'Jibril': 1, 'Muhamad': 1, 'Muhammad': 1, 'States': 1})</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Chia Teck Leng</t>
+  </si>
+  <si>
+    <t>Teo Cheng Kiat</t>
+  </si>
+  <si>
+    <t>Chong Hock Yen</t>
+  </si>
+  <si>
+    <t>Lim Oon Kuin</t>
+  </si>
+  <si>
+    <t>Tan Wee Beng</t>
+  </si>
+  <si>
+    <t>Lange Vivian</t>
+  </si>
+  <si>
+    <t>Mas Selamat Kastari</t>
+  </si>
+  <si>
+    <t>Noordin Mohammad Top</t>
+  </si>
+  <si>
+    <t>Mohd Firdaus Kamal Intdzam</t>
+  </si>
+  <si>
+    <t>Jens Fred Sturzenegger</t>
   </si>
   <si>
     <t>ground_confidence</t>
+  </si>
+  <si>
+    <t>Bidzina Ivanishvili</t>
+  </si>
+  <si>
+    <t>Bernard Kan Cheok Yin</t>
+  </si>
+  <si>
+    <t>Ng Yu Zhi</t>
+  </si>
+  <si>
+    <t>Ahmed Faysal</t>
+  </si>
+  <si>
+    <t>Ng Kheng Wah</t>
+  </si>
+  <si>
+    <t>Tay Sheng Yang</t>
+  </si>
+  <si>
+    <t>SAHIN Huseyin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3435,6 +3486,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3444,7 +3512,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3471,9 +3539,33 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -3486,15 +3578,47 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3834,254 +3958,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H64" workbookViewId="0">
-      <selection activeCell="O87" sqref="O87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="117.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="102.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="9" t="s">
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>327</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>408</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>491</v>
       </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
       <c r="K2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>0.90196078431372551</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>104</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>328</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>409</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>492</v>
       </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
       <c r="K3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>0.4</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>105</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>329</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>410</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>493</v>
       </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
       <c r="K4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>106</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>57</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>330</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>411</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>494</v>
       </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
       <c r="K5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>107</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>412</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>495</v>
       </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>581</v>
+      <c r="K6">
+        <v>100</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -4089,81 +4241,93 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>108</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>61</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>331</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>413</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>496</v>
       </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
       <c r="K7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>109</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>332</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>414</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>497</v>
       </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
       <c r="K8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -4171,81 +4335,93 @@
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>105</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>333</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>415</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>498</v>
       </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
       <c r="K9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>110</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>334</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>416</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>499</v>
       </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
       <c r="K10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4253,81 +4429,93 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>111</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>335</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>417</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>500</v>
       </c>
-      <c r="J11">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>581</v>
+      <c r="K11">
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>112</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>336</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>418</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>501</v>
       </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
       <c r="K12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -4335,40 +4523,46 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>110</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>337</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>419</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>502</v>
       </c>
-      <c r="J13">
-        <v>100</v>
-      </c>
       <c r="K13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -4376,40 +4570,46 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>112</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>338</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>420</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>503</v>
       </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
       <c r="K14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -4417,40 +4617,46 @@
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>113</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>78</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>339</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>421</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>504</v>
       </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15" t="s">
-        <v>581</v>
+      <c r="K15">
+        <v>100</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -4458,122 +4664,140 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>114</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>340</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>422</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>505</v>
       </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
       <c r="K16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>115</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>78</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>341</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>423</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>506</v>
       </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s">
-        <v>581</v>
+      <c r="K17">
+        <v>100</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>116</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>78</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>342</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>424</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>507</v>
       </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
       <c r="K18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -4581,40 +4805,46 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>115</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>78</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>343</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>425</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>504</v>
       </c>
-      <c r="J19">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>581</v>
+      <c r="K19">
+        <v>100</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4622,40 +4852,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>117</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>77</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>344</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>426</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>508</v>
       </c>
-      <c r="J20">
-        <v>100</v>
-      </c>
       <c r="K20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4663,160 +4899,184 @@
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>115</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>78</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>345</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>427</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>509</v>
       </c>
-      <c r="J21">
-        <v>100</v>
-      </c>
       <c r="K21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>110</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>77</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>346</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>428</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>510</v>
       </c>
-      <c r="J22">
-        <v>100</v>
-      </c>
       <c r="K22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>110</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>77</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>347</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>429</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>511</v>
       </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
       <c r="K23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>118</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>43</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>412</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>512</v>
       </c>
-      <c r="J24">
-        <v>100</v>
-      </c>
-      <c r="K24" t="s">
-        <v>581</v>
+      <c r="K24">
+        <v>100</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -4824,40 +5084,46 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>119</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>41</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>348</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>430</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>513</v>
       </c>
-      <c r="J25">
-        <v>100</v>
-      </c>
-      <c r="K25" t="s">
-        <v>581</v>
+      <c r="K25">
+        <v>100</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -4865,40 +5131,46 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>119</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>41</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>349</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>431</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>514</v>
       </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
       <c r="K26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -4906,160 +5178,184 @@
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>119</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>41</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>350</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>432</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>515</v>
       </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
       <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
         <v>0.75</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
       <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>120</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>41</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>351</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>433</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>516</v>
       </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
       <c r="K28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>0.6</v>
       </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>118</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>23</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>352</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>434</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>517</v>
       </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
       <c r="K29">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>121</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>412</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>518</v>
       </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-      <c r="K30" t="s">
-        <v>581</v>
+      <c r="K30">
+        <v>100</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -5067,81 +5363,93 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>118</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>23</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>353</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>435</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>519</v>
       </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
-      <c r="K31" t="s">
-        <v>581</v>
+      <c r="K31">
+        <v>100</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>122</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>23</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>354</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>436</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>520</v>
       </c>
-      <c r="J32">
-        <v>100</v>
-      </c>
-      <c r="K32" t="s">
-        <v>581</v>
+      <c r="K32">
+        <v>100</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -5149,286 +5457,328 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>56</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>355</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>437</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>521</v>
       </c>
-      <c r="J33">
-        <v>100</v>
-      </c>
       <c r="K33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>124</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>60</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>356</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>438</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>522</v>
       </c>
-      <c r="J34">
-        <v>100</v>
-      </c>
       <c r="K34">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>125</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>60</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>175</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>357</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>439</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>523</v>
       </c>
-      <c r="J35">
-        <v>100</v>
-      </c>
       <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35">
         <v>0.1851851851851852</v>
       </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
       <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>126</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>52</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>358</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>440</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>524</v>
       </c>
-      <c r="J36">
-        <v>100</v>
-      </c>
       <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
         <v>0.9285714285714286</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
       <c r="M36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>12</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>108</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>60</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>359</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>441</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>525</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>90</v>
       </c>
-      <c r="K37" t="s">
-        <v>581</v>
-      </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>15</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>127</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>60</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>360</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>442</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>526</v>
       </c>
-      <c r="J38">
-        <v>100</v>
-      </c>
       <c r="K38">
+        <v>100</v>
+      </c>
+      <c r="L38">
         <v>0.22222222222222221</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>18</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>108</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>60</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>361</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>443</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>527</v>
       </c>
-      <c r="J39">
-        <v>100</v>
-      </c>
-      <c r="K39" t="s">
-        <v>581</v>
+      <c r="K39">
+        <v>100</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -5436,81 +5786,93 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C40" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>128</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>53</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>362</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>444</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>528</v>
       </c>
-      <c r="J40">
-        <v>100</v>
-      </c>
       <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40">
         <v>0.4</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>3</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>129</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>48</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>363</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>445</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>529</v>
       </c>
-      <c r="J41">
-        <v>100</v>
-      </c>
       <c r="K41">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5518,40 +5880,46 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>6</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>130</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>42</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>364</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>446</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>530</v>
       </c>
-      <c r="J42">
-        <v>100</v>
-      </c>
       <c r="K42">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -5559,163 +5927,187 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C43" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>116</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>34</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>365</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>447</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>531</v>
       </c>
-      <c r="J43">
-        <v>100</v>
-      </c>
       <c r="K43">
+        <v>100</v>
+      </c>
+      <c r="L43">
         <v>0.42857142857142849</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
       <c r="M43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>3</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>125</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>34</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>366</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>448</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>532</v>
       </c>
-      <c r="J44">
-        <v>100</v>
-      </c>
       <c r="K44">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
         <v>0.875</v>
       </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>6</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C45" t="s">
         <v>54</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>124</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>34</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>367</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>449</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>533</v>
       </c>
-      <c r="J45">
-        <v>100</v>
-      </c>
       <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45">
         <v>0.3</v>
       </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
       <c r="M45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>9</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C46" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>125</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>34</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>186</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>368</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>450</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>534</v>
       </c>
-      <c r="J46">
-        <v>100</v>
-      </c>
       <c r="K46">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -5726,169 +6118,181 @@
       <c r="N46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>12</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>124</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>34</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>187</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>369</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>451</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>535</v>
       </c>
-      <c r="J47">
-        <v>100</v>
-      </c>
       <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47">
         <v>0.4</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>131</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>370</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>452</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>536</v>
       </c>
-      <c r="J48">
-        <v>100</v>
-      </c>
       <c r="K48">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>3</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>132</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
         <v>189</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>371</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>453</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>537</v>
       </c>
-      <c r="J49">
-        <v>100</v>
-      </c>
       <c r="K49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>6</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>131</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>412</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>538</v>
       </c>
-      <c r="J50">
-        <v>100</v>
-      </c>
-      <c r="K50" t="s">
-        <v>581</v>
+      <c r="K50">
+        <v>100</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5897,42 +6301,45 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>9</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>131</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
         <v>191</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>372</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>454</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>539</v>
       </c>
-      <c r="J51">
-        <v>100</v>
-      </c>
-      <c r="K51" t="s">
-        <v>581</v>
+      <c r="K51">
+        <v>100</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5941,39 +6348,42 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>12</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C52" t="s">
         <v>61</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>133</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
         <v>192</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>412</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>538</v>
       </c>
-      <c r="J52">
-        <v>100</v>
-      </c>
-      <c r="K52" t="s">
-        <v>581</v>
+      <c r="K52">
+        <v>100</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5982,45 +6392,48 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>15</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C53" t="s">
         <v>62</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>132</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
         <v>193</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>373</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>455</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>540</v>
       </c>
-      <c r="J53">
-        <v>100</v>
-      </c>
       <c r="K53">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -6028,37 +6441,40 @@
       <c r="N53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>6</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C54" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>114</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
         <v>194</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>412</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>541</v>
       </c>
-      <c r="J54">
-        <v>100</v>
-      </c>
-      <c r="K54" t="s">
-        <v>581</v>
+      <c r="K54">
+        <v>100</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -6067,86 +6483,92 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>108</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
         <v>195</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>374</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>456</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>542</v>
       </c>
-      <c r="J55">
-        <v>100</v>
-      </c>
-      <c r="K55" t="s">
-        <v>581</v>
+      <c r="K55">
+        <v>100</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>15</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C56" t="s">
         <v>65</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>131</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
         <v>196</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>375</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>457</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>543</v>
       </c>
-      <c r="J56">
-        <v>100</v>
-      </c>
       <c r="K56">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -6155,40 +6577,43 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
         <v>18</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C57" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>131</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
         <v>197</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>412</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>544</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>91</v>
       </c>
-      <c r="K57" t="s">
-        <v>581</v>
-      </c>
       <c r="L57">
         <v>0</v>
       </c>
@@ -6196,215 +6621,230 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>0</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C58" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>134</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
         <v>198</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>376</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>458</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>545</v>
       </c>
-      <c r="J58">
-        <v>100</v>
-      </c>
       <c r="K58">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="O58" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
         <v>3</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C59" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>113</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>65</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>199</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>377</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>459</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>546</v>
       </c>
-      <c r="J59">
-        <v>100</v>
-      </c>
       <c r="K59">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O59" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
         <v>6</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>113</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>65</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>200</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>378</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>460</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>547</v>
       </c>
-      <c r="J60">
-        <v>100</v>
-      </c>
       <c r="K60">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
         <v>9</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C61" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>135</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>65</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>201</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>379</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>461</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>548</v>
       </c>
-      <c r="J61">
-        <v>100</v>
-      </c>
       <c r="K61">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
         <v>12</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C62" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>125</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>65</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>412</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>549</v>
       </c>
-      <c r="J62">
-        <v>100</v>
-      </c>
-      <c r="K62" t="s">
-        <v>581</v>
+      <c r="K62">
+        <v>100</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -6413,86 +6853,92 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
         <v>15</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C63" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>113</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>65</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>203</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>380</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>462</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>550</v>
       </c>
-      <c r="J63">
-        <v>100</v>
-      </c>
       <c r="K63">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>18</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C64" t="s">
         <v>73</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>115</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>65</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>204</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>339</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>421</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>551</v>
       </c>
-      <c r="J64">
-        <v>100</v>
-      </c>
-      <c r="K64" t="s">
-        <v>581</v>
+      <c r="K64">
+        <v>100</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -6501,42 +6947,45 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>21</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C65" t="s">
         <v>74</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>128</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>65</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>205</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>381</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>463</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>552</v>
       </c>
-      <c r="J65">
-        <v>100</v>
-      </c>
-      <c r="K65" t="s">
-        <v>581</v>
+      <c r="K65">
+        <v>100</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -6545,39 +6994,42 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C66" t="s">
         <v>75</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>136</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
         <v>206</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>412</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>553</v>
       </c>
-      <c r="J66">
-        <v>100</v>
-      </c>
-      <c r="K66" t="s">
-        <v>581</v>
+      <c r="K66">
+        <v>100</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -6586,86 +7038,92 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O66" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C67" t="s">
         <v>76</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>136</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>382</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>464</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>554</v>
       </c>
-      <c r="J67">
-        <v>100</v>
-      </c>
       <c r="K67">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C68" t="s">
         <v>77</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>137</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>34</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>383</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>465</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>555</v>
       </c>
-      <c r="J68">
-        <v>100</v>
-      </c>
       <c r="K68">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -6676,40 +7134,43 @@
       <c r="N68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>3</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C69" t="s">
         <v>78</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>135</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>34</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>209</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>384</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>466</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>556</v>
       </c>
-      <c r="J69">
-        <v>100</v>
-      </c>
       <c r="K69">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -6720,40 +7181,43 @@
       <c r="N69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>6</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C70" t="s">
         <v>79</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>116</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>34</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>385</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>467</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>557</v>
       </c>
-      <c r="J70">
-        <v>100</v>
-      </c>
       <c r="K70">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -6764,40 +7228,43 @@
       <c r="N70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>9</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C71" t="s">
         <v>80</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>115</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>34</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>211</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>386</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>468</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>557</v>
       </c>
-      <c r="J71">
-        <v>100</v>
-      </c>
       <c r="K71">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -6808,433 +7275,463 @@
       <c r="N71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>12</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C72" t="s">
         <v>81</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>114</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>34</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>212</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>387</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>469</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>558</v>
       </c>
-      <c r="J72">
-        <v>100</v>
-      </c>
       <c r="K72">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O72" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>15</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C73" t="s">
         <v>82</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>114</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>34</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>213</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>388</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>470</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>559</v>
       </c>
-      <c r="J73">
-        <v>100</v>
-      </c>
       <c r="K73">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>18</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>116</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>34</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>214</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>389</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>471</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>560</v>
       </c>
-      <c r="J74">
-        <v>100</v>
-      </c>
       <c r="K74">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O74" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>138</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
         <v>215</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>390</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>472</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>561</v>
       </c>
-      <c r="J75">
-        <v>100</v>
-      </c>
       <c r="K75">
+        <v>100</v>
+      </c>
+      <c r="L75">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
       <c r="M75">
         <v>1</v>
       </c>
       <c r="N75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>3</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>138</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
         <v>216</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>391</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>473</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>562</v>
       </c>
-      <c r="J76">
-        <v>100</v>
-      </c>
       <c r="K76">
+        <v>100</v>
+      </c>
+      <c r="L76">
         <v>0.2857142857142857</v>
       </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>6</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>138</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
         <v>217</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>392</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>474</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>563</v>
       </c>
-      <c r="J77">
-        <v>100</v>
-      </c>
       <c r="K77">
+        <v>100</v>
+      </c>
+      <c r="L77">
         <v>0.77777777777777779</v>
       </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
       <c r="M77">
         <v>1</v>
       </c>
       <c r="N77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>9</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>117</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
         <v>218</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>393</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>475</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>564</v>
       </c>
-      <c r="J78">
-        <v>100</v>
-      </c>
       <c r="K78">
+        <v>100</v>
+      </c>
+      <c r="L78">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
       <c r="M78">
         <v>1</v>
       </c>
       <c r="N78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>12</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C79" t="s">
         <v>88</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>117</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
         <v>219</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>394</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>476</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>565</v>
       </c>
-      <c r="J79">
-        <v>100</v>
-      </c>
       <c r="K79">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>15</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C80" t="s">
         <v>89</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>108</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
         <v>220</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>395</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>477</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>566</v>
       </c>
-      <c r="J80">
-        <v>100</v>
-      </c>
       <c r="K80">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="O80" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>110</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>58</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>221</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>412</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>567</v>
       </c>
-      <c r="J81">
-        <v>100</v>
-      </c>
-      <c r="K81" t="s">
-        <v>581</v>
+      <c r="K81">
+        <v>100</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -7243,438 +7740,468 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O81" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>3</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C82" t="s">
         <v>91</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>139</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>58</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>222</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>396</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>478</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>568</v>
       </c>
-      <c r="J82">
-        <v>100</v>
-      </c>
       <c r="K82">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>6</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C83" t="s">
         <v>92</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>118</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>58</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>223</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>397</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>479</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>569</v>
       </c>
-      <c r="J83">
-        <v>100</v>
-      </c>
       <c r="K83">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C84" t="s">
         <v>93</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>140</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>56</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>224</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>398</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>480</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>570</v>
       </c>
-      <c r="J84">
-        <v>100</v>
-      </c>
       <c r="K84">
+        <v>100</v>
+      </c>
+      <c r="L84">
         <v>0.5</v>
       </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>3</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C85" t="s">
         <v>94</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>140</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>56</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>225</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>399</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>481</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>571</v>
       </c>
-      <c r="J85">
-        <v>100</v>
-      </c>
       <c r="K85">
+        <v>100</v>
+      </c>
+      <c r="L85">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C86" t="s">
         <v>95</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>125</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
         <v>226</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>400</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>482</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>572</v>
       </c>
-      <c r="J86">
-        <v>100</v>
-      </c>
       <c r="K86">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>3</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C87" t="s">
         <v>96</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>124</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
         <v>227</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>401</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>483</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>573</v>
       </c>
-      <c r="J87">
-        <v>100</v>
-      </c>
       <c r="K87">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>6</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C88" t="s">
         <v>97</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>141</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
         <v>228</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>402</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>484</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>574</v>
       </c>
-      <c r="J88">
-        <v>100</v>
-      </c>
       <c r="K88">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>9</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C89" t="s">
         <v>98</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>142</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
         <v>229</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>403</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>485</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>575</v>
       </c>
-      <c r="J89">
-        <v>100</v>
-      </c>
       <c r="K89">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>12</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C90" t="s">
         <v>99</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>128</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
         <v>230</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>404</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>486</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>576</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>89</v>
       </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="O90" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0</v>
       </c>
-      <c r="B91" t="s">
-        <v>100</v>
+      <c r="B91" s="7" t="s">
+        <v>599</v>
       </c>
       <c r="C91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" t="s">
         <v>110</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>63</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>231</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>405</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>487</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>577</v>
       </c>
-      <c r="J91">
-        <v>100</v>
-      </c>
-      <c r="K91" t="s">
-        <v>581</v>
+      <c r="K91">
+        <v>100</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -7685,37 +8212,38 @@
       <c r="N91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="7"/>
+      <c r="C92" t="s">
         <v>101</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>110</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
         <v>232</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>488</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>578</v>
       </c>
-      <c r="J92">
-        <v>100</v>
-      </c>
-      <c r="K92" t="s">
-        <v>581</v>
+      <c r="K92">
+        <v>100</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -7724,86 +8252,88 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O92" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>3</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="7"/>
+      <c r="C93" t="s">
         <v>102</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>110</v>
       </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
         <v>233</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>406</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>489</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>579</v>
       </c>
-      <c r="J93">
-        <v>100</v>
-      </c>
-      <c r="K93" t="s">
-        <v>581</v>
+      <c r="K93">
+        <v>100</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>6</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="7"/>
+      <c r="C94" t="s">
         <v>103</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>110</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
         <v>233</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>407</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>490</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>580</v>
       </c>
-      <c r="J94">
-        <v>100</v>
-      </c>
-      <c r="K94" t="s">
-        <v>581</v>
+      <c r="K94">
+        <v>100</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -7812,105 +8342,109 @@
         <v>0</v>
       </c>
       <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" s="15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="F72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="F76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="F78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="F79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="F84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="F86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="F87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="F88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="F90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="F92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="F93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="G91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Pictures\Y3S1\BT4013\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Desktop/Y4S1/BT4103/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DBD3C9-6626-423F-8C86-894B36FB4BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5919D0B9-D101-DD47-A7AD-3A727088037B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24540" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3958,20 +3958,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K176" sqref="K176:O353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="9" t="s">
         <v>581</v>
@@ -4016,7 +4016,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>12</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>6</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>12</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>15</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>18</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>6</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>9</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>12</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>6</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>9</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>12</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>15</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>9</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>15</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>18</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>0</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>3</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>6</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>9</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>12</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>15</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>18</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>21</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>6</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>9</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>12</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>15</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>18</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>6</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>9</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>12</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>15</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>3</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>6</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>3</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>3</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>6</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>9</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>12</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>3</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>6</v>
       </c>
@@ -8347,6 +8347,1917 @@
       <c r="O94" s="15">
         <v>1</v>
       </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K145">
+        <v>100</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>100</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K147">
+        <v>100</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K148">
+        <v>100</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K149">
+        <v>100</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>100</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K151">
+        <v>100</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K152">
+        <v>100</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K153">
+        <v>100</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>100</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K155">
+        <v>100</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K156">
+        <v>100</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K157">
+        <v>100</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K158">
+        <v>100</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K159">
+        <v>100</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K160">
+        <v>100</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>100</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>100</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <v>100</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K164">
+        <v>100</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K165">
+        <v>100</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K166">
+        <v>100</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K167">
+        <v>100</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K168">
+        <v>100</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K169">
+        <v>100</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K170">
+        <v>100</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K171">
+        <v>100</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K172">
+        <v>100</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K173">
+        <v>100</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K174">
+        <v>100</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K175">
+        <v>100</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="O176" s="15"/>
+    </row>
+    <row r="177" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O177" s="15"/>
+    </row>
+    <row r="178" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O178" s="15"/>
+    </row>
+    <row r="179" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O179" s="15"/>
+    </row>
+    <row r="180" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O180" s="15"/>
+    </row>
+    <row r="181" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O181" s="15"/>
+    </row>
+    <row r="182" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O182" s="15"/>
+    </row>
+    <row r="183" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O183" s="15"/>
+    </row>
+    <row r="184" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O184" s="15"/>
+    </row>
+    <row r="185" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O185" s="15"/>
+    </row>
+    <row r="186" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O186" s="15"/>
+    </row>
+    <row r="187" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O187" s="15"/>
+    </row>
+    <row r="188" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O188" s="15"/>
+    </row>
+    <row r="189" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O189" s="15"/>
+    </row>
+    <row r="190" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O190" s="15"/>
+    </row>
+    <row r="191" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O191" s="15"/>
+    </row>
+    <row r="192" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O192" s="15"/>
+    </row>
+    <row r="193" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O193" s="15"/>
+    </row>
+    <row r="194" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O194" s="15"/>
+    </row>
+    <row r="195" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O195" s="15"/>
+    </row>
+    <row r="196" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O196" s="15"/>
+    </row>
+    <row r="197" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O197" s="15"/>
+    </row>
+    <row r="198" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O198" s="15"/>
+    </row>
+    <row r="199" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O199" s="15"/>
+    </row>
+    <row r="200" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O200" s="15"/>
+    </row>
+    <row r="201" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O201" s="15"/>
+    </row>
+    <row r="202" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O202" s="15"/>
+    </row>
+    <row r="203" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O203" s="15"/>
+    </row>
+    <row r="204" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O204" s="15"/>
+    </row>
+    <row r="205" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O205" s="15"/>
+    </row>
+    <row r="206" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O206" s="15"/>
+    </row>
+    <row r="207" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O207" s="15"/>
+    </row>
+    <row r="208" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O208" s="15"/>
+    </row>
+    <row r="209" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O209" s="15"/>
+    </row>
+    <row r="210" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O210" s="15"/>
+    </row>
+    <row r="211" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O211" s="15"/>
+    </row>
+    <row r="212" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O212" s="15"/>
+    </row>
+    <row r="213" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O213" s="15"/>
+    </row>
+    <row r="214" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O214" s="15"/>
+    </row>
+    <row r="215" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O215" s="15"/>
+    </row>
+    <row r="216" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O216" s="15"/>
+    </row>
+    <row r="217" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O217" s="15"/>
+    </row>
+    <row r="218" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O218" s="15"/>
+    </row>
+    <row r="219" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O219" s="15"/>
+    </row>
+    <row r="220" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O220" s="15"/>
+    </row>
+    <row r="221" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O221" s="15"/>
+    </row>
+    <row r="222" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O222" s="15"/>
+    </row>
+    <row r="223" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O223" s="15"/>
+    </row>
+    <row r="224" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O224" s="15"/>
+    </row>
+    <row r="225" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O225" s="15"/>
+    </row>
+    <row r="226" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O226" s="15"/>
+    </row>
+    <row r="227" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O227" s="15"/>
+    </row>
+    <row r="228" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O228" s="15"/>
+    </row>
+    <row r="229" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O229" s="15"/>
+    </row>
+    <row r="230" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O230" s="15"/>
+    </row>
+    <row r="231" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O231" s="15"/>
+    </row>
+    <row r="232" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O232" s="15"/>
+    </row>
+    <row r="233" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O233" s="15"/>
+    </row>
+    <row r="234" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O234" s="15"/>
+    </row>
+    <row r="235" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O235" s="15"/>
+    </row>
+    <row r="236" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O236" s="15"/>
+    </row>
+    <row r="237" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O237" s="15"/>
+    </row>
+    <row r="238" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O238" s="15"/>
+    </row>
+    <row r="239" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O239" s="15"/>
+    </row>
+    <row r="240" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O240" s="15"/>
+    </row>
+    <row r="241" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O241" s="15"/>
+    </row>
+    <row r="242" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O242" s="15"/>
+    </row>
+    <row r="243" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O243" s="15"/>
+    </row>
+    <row r="244" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O244" s="15"/>
+    </row>
+    <row r="245" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O245" s="15"/>
+    </row>
+    <row r="246" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O246" s="15"/>
+    </row>
+    <row r="247" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O247" s="15"/>
+    </row>
+    <row r="248" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O248" s="15"/>
+    </row>
+    <row r="249" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O249" s="15"/>
+    </row>
+    <row r="250" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O250" s="15"/>
+    </row>
+    <row r="251" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O251" s="15"/>
+    </row>
+    <row r="252" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O252" s="15"/>
+    </row>
+    <row r="253" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O253" s="15"/>
+    </row>
+    <row r="254" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O254" s="15"/>
+    </row>
+    <row r="255" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O255" s="15"/>
+    </row>
+    <row r="256" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O256" s="15"/>
+    </row>
+    <row r="257" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O257" s="15"/>
+    </row>
+    <row r="258" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O258" s="15"/>
+    </row>
+    <row r="259" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O259" s="15"/>
+    </row>
+    <row r="260" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O260" s="15"/>
+    </row>
+    <row r="261" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O261" s="15"/>
+    </row>
+    <row r="262" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O262" s="15"/>
+    </row>
+    <row r="263" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O263" s="15"/>
+    </row>
+    <row r="264" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O264" s="15"/>
+    </row>
+    <row r="265" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O265" s="15"/>
+    </row>
+    <row r="266" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O266" s="15"/>
+    </row>
+    <row r="267" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O267" s="15"/>
+    </row>
+    <row r="268" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O268" s="15"/>
+    </row>
+    <row r="269" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O269" s="15"/>
+    </row>
+    <row r="270" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O270" s="15"/>
+    </row>
+    <row r="271" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O271" s="15"/>
+    </row>
+    <row r="272" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O272" s="15"/>
+    </row>
+    <row r="273" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O273" s="15"/>
+    </row>
+    <row r="274" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O274" s="15"/>
+    </row>
+    <row r="275" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O275" s="15"/>
+    </row>
+    <row r="276" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O276" s="15"/>
+    </row>
+    <row r="277" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O277" s="15"/>
+    </row>
+    <row r="278" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O278" s="15"/>
+    </row>
+    <row r="279" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O279" s="15"/>
+    </row>
+    <row r="280" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O280" s="15"/>
+    </row>
+    <row r="281" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O281" s="15"/>
+    </row>
+    <row r="282" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O282" s="15"/>
+    </row>
+    <row r="283" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O283" s="15"/>
+    </row>
+    <row r="284" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O284" s="15"/>
+    </row>
+    <row r="285" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O285" s="15"/>
+    </row>
+    <row r="286" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O286" s="15"/>
+    </row>
+    <row r="287" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O287" s="15"/>
+    </row>
+    <row r="288" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O288" s="15"/>
+    </row>
+    <row r="289" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O289" s="15"/>
+    </row>
+    <row r="290" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O290" s="15"/>
+    </row>
+    <row r="291" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O291" s="15"/>
+    </row>
+    <row r="292" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O292" s="15"/>
+    </row>
+    <row r="293" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O293" s="15"/>
+    </row>
+    <row r="294" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O294" s="15"/>
+    </row>
+    <row r="295" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O295" s="15"/>
+    </row>
+    <row r="296" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O296" s="15"/>
+    </row>
+    <row r="297" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O297" s="15"/>
+    </row>
+    <row r="298" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O298" s="15"/>
+    </row>
+    <row r="299" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O299" s="15"/>
+    </row>
+    <row r="300" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O300" s="15"/>
+    </row>
+    <row r="301" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O301" s="15"/>
+    </row>
+    <row r="302" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O302" s="15"/>
+    </row>
+    <row r="303" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O303" s="15"/>
+    </row>
+    <row r="304" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O304" s="15"/>
+    </row>
+    <row r="305" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O305" s="15"/>
+    </row>
+    <row r="306" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O306" s="15"/>
+    </row>
+    <row r="307" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O307" s="15"/>
+    </row>
+    <row r="308" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O308" s="15"/>
+    </row>
+    <row r="309" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O309" s="15"/>
+    </row>
+    <row r="310" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O310" s="15"/>
+    </row>
+    <row r="311" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O311" s="15"/>
+    </row>
+    <row r="312" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O312" s="15"/>
+    </row>
+    <row r="313" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O313" s="15"/>
+    </row>
+    <row r="314" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O314" s="15"/>
+    </row>
+    <row r="315" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O315" s="15"/>
+    </row>
+    <row r="316" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O316" s="15"/>
+    </row>
+    <row r="317" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O317" s="15"/>
+    </row>
+    <row r="318" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O318" s="15"/>
+    </row>
+    <row r="319" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O319" s="15"/>
+    </row>
+    <row r="320" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O320" s="15"/>
+    </row>
+    <row r="321" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O321" s="15"/>
+    </row>
+    <row r="322" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O322" s="15"/>
+    </row>
+    <row r="323" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O323" s="15"/>
+    </row>
+    <row r="324" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O324" s="15"/>
+    </row>
+    <row r="325" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O325" s="15"/>
+    </row>
+    <row r="326" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O326" s="15"/>
+    </row>
+    <row r="327" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O327" s="15"/>
+    </row>
+    <row r="328" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O328" s="15"/>
+    </row>
+    <row r="329" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O329" s="15"/>
+    </row>
+    <row r="330" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O330" s="15"/>
+    </row>
+    <row r="331" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O331" s="15"/>
+    </row>
+    <row r="332" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O332" s="15"/>
+    </row>
+    <row r="333" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O333" s="15"/>
+    </row>
+    <row r="334" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O334" s="15"/>
+    </row>
+    <row r="335" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O335" s="15"/>
+    </row>
+    <row r="336" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O336" s="15"/>
+    </row>
+    <row r="337" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O337" s="15"/>
+    </row>
+    <row r="338" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O338" s="15"/>
+    </row>
+    <row r="339" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O339" s="15"/>
+    </row>
+    <row r="340" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O340" s="15"/>
+    </row>
+    <row r="341" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O341" s="15"/>
+    </row>
+    <row r="342" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O342" s="15"/>
+    </row>
+    <row r="343" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O343" s="15"/>
+    </row>
+    <row r="344" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O344" s="15"/>
+    </row>
+    <row r="345" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O345" s="15"/>
+    </row>
+    <row r="346" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O346" s="15"/>
+    </row>
+    <row r="347" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O347" s="15"/>
+    </row>
+    <row r="348" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O348" s="15"/>
+    </row>
+    <row r="349" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O349" s="15"/>
+    </row>
+    <row r="350" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O350" s="15"/>
+    </row>
+    <row r="351" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O351" s="15"/>
+    </row>
+    <row r="352" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O352" s="15"/>
+    </row>
+    <row r="353" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O353" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
